--- a/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9790344872713005</v>
+        <v>0.9790344872713</v>
       </c>
       <c r="D2">
-        <v>1.000986043090019</v>
+        <v>1.000986043090018</v>
       </c>
       <c r="E2">
-        <v>0.9873589661930142</v>
+        <v>0.9873589661930134</v>
       </c>
       <c r="F2">
-        <v>0.9547410542609749</v>
+        <v>0.9547410542609742</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.001860881383934</v>
       </c>
       <c r="K2">
-        <v>1.012431657838548</v>
+        <v>1.012431657838547</v>
       </c>
       <c r="L2">
-        <v>0.9989972659122649</v>
+        <v>0.9989972659122642</v>
       </c>
       <c r="M2">
-        <v>0.9668691268332866</v>
+        <v>0.9668691268332861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9881940076902865</v>
+        <v>0.9881940076902863</v>
       </c>
       <c r="D3">
-        <v>1.007818047645629</v>
+        <v>1.007818047645628</v>
       </c>
       <c r="E3">
-        <v>0.9959593883826563</v>
+        <v>0.9959593883826559</v>
       </c>
       <c r="F3">
-        <v>0.9669287856511793</v>
+        <v>0.9669287856511791</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038698282168887</v>
+        <v>1.038698282168886</v>
       </c>
       <c r="J3">
         <v>1.009011773244408</v>
       </c>
       <c r="K3">
-        <v>1.018351862938685</v>
+        <v>1.018351862938684</v>
       </c>
       <c r="L3">
         <v>1.006644232000658</v>
       </c>
       <c r="M3">
-        <v>0.9780030690913162</v>
+        <v>0.9780030690913157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,10 +497,10 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9938822750561144</v>
+        <v>0.9938822750561146</v>
       </c>
       <c r="D4">
-        <v>1.012062892065909</v>
+        <v>1.01206289206591</v>
       </c>
       <c r="E4">
         <v>1.001306066903489</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040713105660541</v>
+        <v>1.040713105660542</v>
       </c>
       <c r="J4">
         <v>1.013443778131167</v>
@@ -524,7 +524,7 @@
         <v>1.011388754366421</v>
       </c>
       <c r="M4">
-        <v>0.9849002366592728</v>
+        <v>0.9849002366592731</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962208113190135</v>
+        <v>0.9962208113190139</v>
       </c>
       <c r="D5">
-        <v>1.013808330415212</v>
+        <v>1.013808330415213</v>
       </c>
       <c r="E5">
         <v>1.003505437116266</v>
       </c>
       <c r="F5">
-        <v>0.9775871697540754</v>
+        <v>0.9775871697540751</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.015263688707173</v>
       </c>
       <c r="K5">
-        <v>1.023522414776426</v>
+        <v>1.023522414776427</v>
       </c>
       <c r="L5">
         <v>1.013338194732631</v>
       </c>
       <c r="M5">
-        <v>0.9877322347861626</v>
+        <v>0.9877322347861622</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9966104802569543</v>
+        <v>0.9966104802569545</v>
       </c>
       <c r="D6">
         <v>1.014099185784542</v>
       </c>
       <c r="E6">
-        <v>1.003871989158939</v>
+        <v>1.00387198915894</v>
       </c>
       <c r="F6">
-        <v>0.9781041545856747</v>
+        <v>0.9781041545856749</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.041674138560719</v>
       </c>
       <c r="J6">
-        <v>1.015566811564855</v>
+        <v>1.015566811564856</v>
       </c>
       <c r="K6">
         <v>1.023772958798993</v>
       </c>
       <c r="L6">
-        <v>1.013662962328542</v>
+        <v>1.013662962328543</v>
       </c>
       <c r="M6">
         <v>0.9882039369924153</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9939137249121701</v>
+        <v>0.9939137249121682</v>
       </c>
       <c r="D7">
-        <v>1.01208636458954</v>
+        <v>1.012086364589539</v>
       </c>
       <c r="E7">
-        <v>1.001335640262109</v>
+        <v>1.001335640262108</v>
       </c>
       <c r="F7">
-        <v>0.9745255204795265</v>
+        <v>0.9745255204795247</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.040724204388441</v>
       </c>
       <c r="J7">
-        <v>1.01346826183253</v>
+        <v>1.013468261832528</v>
       </c>
       <c r="K7">
-        <v>1.022038120755558</v>
+        <v>1.022038120755556</v>
       </c>
       <c r="L7">
-        <v>1.011414975912489</v>
+        <v>1.011414975912488</v>
       </c>
       <c r="M7">
-        <v>0.9849383361325426</v>
+        <v>0.984938336132541</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9821821484169775</v>
+        <v>0.9821821484169758</v>
       </c>
       <c r="D8">
-        <v>1.00333331723822</v>
+        <v>1.003333317238219</v>
       </c>
       <c r="E8">
-        <v>0.9903132437891761</v>
+        <v>0.9903132437891743</v>
       </c>
       <c r="F8">
-        <v>0.9589328043684392</v>
+        <v>0.9589328043684379</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.03655378310513</v>
       </c>
       <c r="J8">
-        <v>1.004320143766504</v>
+        <v>1.004320143766503</v>
       </c>
       <c r="K8">
-        <v>1.014468325148921</v>
+        <v>1.01446832514892</v>
       </c>
       <c r="L8">
-        <v>1.001626047044822</v>
+        <v>1.00162604704482</v>
       </c>
       <c r="M8">
-        <v>0.9706993709608129</v>
+        <v>0.9706993709608117</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9594554330052689</v>
+        <v>0.9594554330052685</v>
       </c>
       <c r="D9">
-        <v>0.9864026873011368</v>
+        <v>0.9864026873011359</v>
       </c>
       <c r="E9">
-        <v>0.9690117588943371</v>
+        <v>0.9690117588943363</v>
       </c>
       <c r="F9">
-        <v>0.9285669858251895</v>
+        <v>0.9285669858251887</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028330290803452</v>
       </c>
       <c r="J9">
-        <v>0.9865258982543683</v>
+        <v>0.9865258982543675</v>
       </c>
       <c r="K9">
-        <v>0.9997202922478017</v>
+        <v>0.9997202922478009</v>
       </c>
       <c r="L9">
-        <v>0.9826284374721576</v>
+        <v>0.9826284374721568</v>
       </c>
       <c r="M9">
-        <v>0.9429360848680053</v>
+        <v>0.9429360848680044</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9425356686079179</v>
+        <v>0.9425356686079186</v>
       </c>
       <c r="D10">
-        <v>0.9738314515308386</v>
+        <v>0.9738314515308388</v>
       </c>
       <c r="E10">
-        <v>0.9531962095745945</v>
+        <v>0.9531962095745947</v>
       </c>
       <c r="F10">
-        <v>0.9057702173893202</v>
+        <v>0.9057702173893203</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.022113975286022</v>
       </c>
       <c r="J10">
-        <v>0.973230499321053</v>
+        <v>0.9732304993210532</v>
       </c>
       <c r="K10">
-        <v>0.9886898270209999</v>
+        <v>0.9886898270210003</v>
       </c>
       <c r="L10">
-        <v>0.9684652672940471</v>
+        <v>0.9684652672940475</v>
       </c>
       <c r="M10">
-        <v>0.922078247289905</v>
+        <v>0.9220782472899051</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9346752883779735</v>
+        <v>0.9346752883779736</v>
       </c>
       <c r="D11">
-        <v>0.9680035343620641</v>
+        <v>0.9680035343620645</v>
       </c>
       <c r="E11">
-        <v>0.9458612277547989</v>
+        <v>0.9458612277547991</v>
       </c>
       <c r="F11">
-        <v>0.8951093705363519</v>
+        <v>0.8951093705363523</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019205132338482</v>
+        <v>1.019205132338483</v>
       </c>
       <c r="J11">
-        <v>0.9670429193089831</v>
+        <v>0.9670429193089835</v>
       </c>
       <c r="K11">
-        <v>0.9835551804945698</v>
+        <v>0.9835551804945702</v>
       </c>
       <c r="L11">
         <v>0.9618818201338732</v>
       </c>
       <c r="M11">
-        <v>0.9123232727412364</v>
+        <v>0.9123232727412369</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9316627258743079</v>
+        <v>0.9316627258743081</v>
       </c>
       <c r="D12">
-        <v>0.9657722230003513</v>
+        <v>0.9657722230003516</v>
       </c>
       <c r="E12">
         <v>0.9430521125006328</v>
       </c>
       <c r="F12">
-        <v>0.8910101002071215</v>
+        <v>0.8910101002071209</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.018087291827699</v>
       </c>
       <c r="J12">
-        <v>0.9646698569075463</v>
+        <v>0.9646698569075464</v>
       </c>
       <c r="K12">
-        <v>0.9815859252013024</v>
+        <v>0.9815859252013027</v>
       </c>
       <c r="L12">
         <v>0.9593581931873844</v>
       </c>
       <c r="M12">
-        <v>0.9085725054899982</v>
+        <v>0.9085725054899978</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9323133698454399</v>
+        <v>0.932313369845439</v>
       </c>
       <c r="D13">
-        <v>0.9662540235530472</v>
+        <v>0.9662540235530466</v>
       </c>
       <c r="E13">
-        <v>0.9436587188427095</v>
+        <v>0.9436587188427089</v>
       </c>
       <c r="F13">
-        <v>0.8918961058534837</v>
+        <v>0.8918961058534831</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.018328852107571</v>
       </c>
       <c r="J13">
-        <v>0.9651824559682846</v>
+        <v>0.965182455968284</v>
       </c>
       <c r="K13">
-        <v>0.9820112966911715</v>
+        <v>0.9820112966911709</v>
       </c>
       <c r="L13">
-        <v>0.9599032575272721</v>
+        <v>0.9599032575272717</v>
       </c>
       <c r="M13">
-        <v>0.909383172573126</v>
+        <v>0.9093831725731252</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9344282475517621</v>
+        <v>0.9344282475517636</v>
       </c>
       <c r="D14">
-        <v>0.9678205098038737</v>
+        <v>0.9678205098038747</v>
       </c>
       <c r="E14">
-        <v>0.9456308268811701</v>
+        <v>0.9456308268811712</v>
       </c>
       <c r="F14">
-        <v>0.8947735055582465</v>
+        <v>0.8947735055582482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019113525099823</v>
+        <v>1.019113525099824</v>
       </c>
       <c r="J14">
-        <v>0.9668483522338305</v>
+        <v>0.9668483522338316</v>
       </c>
       <c r="K14">
-        <v>0.9833937207773987</v>
+        <v>0.9833937207773996</v>
       </c>
       <c r="L14">
-        <v>0.9616748824971423</v>
+        <v>0.9616748824971431</v>
       </c>
       <c r="M14">
-        <v>0.9120159559044667</v>
+        <v>0.9120159559044682</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9357185577995304</v>
+        <v>0.9357185577995309</v>
       </c>
       <c r="D15">
-        <v>0.9687765544015052</v>
+        <v>0.9687765544015051</v>
       </c>
       <c r="E15">
-        <v>0.946834311188457</v>
+        <v>0.9468343111884577</v>
       </c>
       <c r="F15">
-        <v>0.896527189381027</v>
+        <v>0.8965271893810274</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019591875294664</v>
       </c>
       <c r="J15">
-        <v>0.9678645235242508</v>
+        <v>0.967864523524251</v>
       </c>
       <c r="K15">
-        <v>0.9842369817217267</v>
+        <v>0.9842369817217268</v>
       </c>
       <c r="L15">
-        <v>0.9627557131384356</v>
+        <v>0.9627557131384361</v>
       </c>
       <c r="M15">
-        <v>0.9136205879271174</v>
+        <v>0.913620587927118</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9430450728398871</v>
+        <v>0.943045072839888</v>
       </c>
       <c r="D16">
-        <v>0.9742094253417145</v>
+        <v>0.9742094253417154</v>
       </c>
       <c r="E16">
-        <v>0.9536718358850701</v>
+        <v>0.9536718358850709</v>
       </c>
       <c r="F16">
-        <v>0.9064594533225782</v>
+        <v>0.906459453322579</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022302070636707</v>
+        <v>1.022302070636708</v>
       </c>
       <c r="J16">
-        <v>0.9736312735513363</v>
+        <v>0.9736312735513369</v>
       </c>
       <c r="K16">
-        <v>0.9890223909140652</v>
+        <v>0.989022390914066</v>
       </c>
       <c r="L16">
-        <v>0.9688918499748965</v>
+        <v>0.9688918499748973</v>
       </c>
       <c r="M16">
-        <v>0.9227089237866672</v>
+        <v>0.922708923786668</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9474897962637622</v>
+        <v>0.9474897962637641</v>
       </c>
       <c r="D17">
-        <v>0.977508783787205</v>
+        <v>0.9775087837872063</v>
       </c>
       <c r="E17">
-        <v>0.9578232382276715</v>
+        <v>0.9578232382276731</v>
       </c>
       <c r="F17">
-        <v>0.9124652065697055</v>
+        <v>0.9124652065697075</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023940952437668</v>
+        <v>1.023940952437669</v>
       </c>
       <c r="J17">
-        <v>0.9771269490442162</v>
+        <v>0.9771269490442178</v>
       </c>
       <c r="K17">
-        <v>0.9919230026925376</v>
+        <v>0.9919230026925391</v>
       </c>
       <c r="L17">
-        <v>0.9726135273325494</v>
+        <v>0.9726135273325511</v>
       </c>
       <c r="M17">
-        <v>0.9282043431874513</v>
+        <v>0.9282043431874533</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9500317938520517</v>
+        <v>0.9500317938520526</v>
       </c>
       <c r="D18">
-        <v>0.9793968345284345</v>
+        <v>0.9793968345284354</v>
       </c>
       <c r="E18">
-        <v>0.9601986136763427</v>
+        <v>0.9601986136763438</v>
       </c>
       <c r="F18">
-        <v>0.915893702836446</v>
+        <v>0.915893702836447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024876305217998</v>
+        <v>1.024876305217999</v>
       </c>
       <c r="J18">
-        <v>0.979125158086826</v>
+        <v>0.9791251580868271</v>
       </c>
       <c r="K18">
-        <v>0.993580941982337</v>
+        <v>0.9935809419823378</v>
       </c>
       <c r="L18">
-        <v>0.9747416574415017</v>
+        <v>0.9747416574415028</v>
       </c>
       <c r="M18">
-        <v>0.9313414033095017</v>
+        <v>0.9313414033095025</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9508903152390364</v>
+        <v>0.9508903152390359</v>
       </c>
       <c r="D19">
-        <v>0.9800346705506927</v>
+        <v>0.9800346705506926</v>
       </c>
       <c r="E19">
-        <v>0.9610010472196588</v>
+        <v>0.9610010472196584</v>
       </c>
       <c r="F19">
-        <v>0.9170506328172413</v>
+        <v>0.9170506328172404</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025191872492577</v>
       </c>
       <c r="J19">
-        <v>0.9797998498709947</v>
+        <v>0.9797998498709942</v>
       </c>
       <c r="K19">
-        <v>0.9941407182147346</v>
+        <v>0.9941407182147345</v>
       </c>
       <c r="L19">
-        <v>0.975460339746193</v>
+        <v>0.9754603397461925</v>
       </c>
       <c r="M19">
-        <v>0.9323999644201666</v>
+        <v>0.9323999644201657</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9470182284973885</v>
+        <v>0.9470182284973879</v>
       </c>
       <c r="D20">
-        <v>0.9771586169534793</v>
+        <v>0.9771586169534792</v>
       </c>
       <c r="E20">
-        <v>0.9573826712818044</v>
+        <v>0.957382671281804</v>
       </c>
       <c r="F20">
-        <v>0.9118286912411953</v>
+        <v>0.911828691241195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023767275332308</v>
+        <v>1.023767275332307</v>
       </c>
       <c r="J20">
-        <v>0.9767561771084862</v>
+        <v>0.9767561771084857</v>
       </c>
       <c r="K20">
-        <v>0.9916153579658721</v>
+        <v>0.9916153579658719</v>
       </c>
       <c r="L20">
-        <v>0.9722187075229852</v>
+        <v>0.9722187075229849</v>
       </c>
       <c r="M20">
-        <v>0.9276219240108887</v>
+        <v>0.9276219240108886</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9338081492611128</v>
+        <v>0.9338081492611122</v>
       </c>
       <c r="D21">
-        <v>0.9673611374113322</v>
+        <v>0.9673611374113317</v>
       </c>
       <c r="E21">
-        <v>0.9450525308052953</v>
+        <v>0.9450525308052949</v>
       </c>
       <c r="F21">
-        <v>0.8939302234783789</v>
+        <v>0.8939302234783782</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.01888353381643</v>
       </c>
       <c r="J21">
-        <v>0.966359942739795</v>
+        <v>0.9663599427397943</v>
       </c>
       <c r="K21">
-        <v>0.9829884189688636</v>
+        <v>0.982988418968863</v>
       </c>
       <c r="L21">
-        <v>0.9611554403520332</v>
+        <v>0.9611554403520326</v>
       </c>
       <c r="M21">
-        <v>0.9112443559347353</v>
+        <v>0.9112443559347345</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9249564168766016</v>
+        <v>0.9249564168766019</v>
       </c>
       <c r="D22">
-        <v>0.9608098946205116</v>
+        <v>0.960809894620512</v>
       </c>
       <c r="E22">
-        <v>0.9368028444213589</v>
+        <v>0.9368028444213596</v>
       </c>
       <c r="F22">
-        <v>0.8818558336832785</v>
+        <v>0.8818558336832791</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015593466966797</v>
+        <v>1.015593466966798</v>
       </c>
       <c r="J22">
-        <v>0.959384176593551</v>
+        <v>0.9593841765935514</v>
       </c>
       <c r="K22">
-        <v>0.9771998525642792</v>
+        <v>0.9771998525642797</v>
       </c>
       <c r="L22">
-        <v>0.9537395668595694</v>
+        <v>0.9537395668595701</v>
       </c>
       <c r="M22">
-        <v>0.9001972624217787</v>
+        <v>0.9001972624217793</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.92970572807174</v>
+        <v>0.9297057280717411</v>
       </c>
       <c r="D23">
-        <v>0.9643234451862013</v>
+        <v>0.9643234451862019</v>
       </c>
       <c r="E23">
-        <v>0.9412278949256438</v>
+        <v>0.9412278949256451</v>
       </c>
       <c r="F23">
-        <v>0.8883429521617581</v>
+        <v>0.888342952161759</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.017360302839355</v>
       </c>
       <c r="J23">
-        <v>0.9631278336335465</v>
+        <v>0.9631278336335475</v>
       </c>
       <c r="K23">
-        <v>0.9803063158172908</v>
+        <v>0.9803063158172914</v>
       </c>
       <c r="L23">
-        <v>0.9577186964066321</v>
+        <v>0.9577186964066335</v>
       </c>
       <c r="M23">
-        <v>0.9061322050955902</v>
+        <v>0.9061322050955913</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1266,7 +1266,7 @@
         <v>0.9575818860453231</v>
       </c>
       <c r="F24">
-        <v>0.9121165340161557</v>
+        <v>0.9121165340161562</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023845815789299</v>
       </c>
       <c r="J24">
-        <v>0.9769238382117775</v>
+        <v>0.9769238382117778</v>
       </c>
       <c r="K24">
         <v>0.9917544736575864</v>
       </c>
       <c r="L24">
-        <v>0.9723972406665373</v>
+        <v>0.9723972406665374</v>
       </c>
       <c r="M24">
-        <v>0.9278853039512346</v>
+        <v>0.9278853039512347</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9656098081907696</v>
+        <v>0.9656098081907697</v>
       </c>
       <c r="D25">
-        <v>0.9909831100319364</v>
+        <v>0.9909831100319367</v>
       </c>
       <c r="E25">
-        <v>0.9747735802442622</v>
+        <v>0.9747735802442624</v>
       </c>
       <c r="F25">
-        <v>0.9368151772646611</v>
+        <v>0.9368151772646612</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030573306801456</v>
       </c>
       <c r="J25">
-        <v>0.9913526773223347</v>
+        <v>0.991352677322335</v>
       </c>
       <c r="K25">
         <v>1.003723033128628</v>
       </c>
       <c r="L25">
-        <v>0.9877765482091652</v>
+        <v>0.9877765482091654</v>
       </c>
       <c r="M25">
-        <v>0.9504805203016468</v>
+        <v>0.950480520301647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9790344872713</v>
+        <v>0.9790344872713005</v>
       </c>
       <c r="D2">
-        <v>1.000986043090018</v>
+        <v>1.000986043090019</v>
       </c>
       <c r="E2">
-        <v>0.9873589661930134</v>
+        <v>0.9873589661930142</v>
       </c>
       <c r="F2">
-        <v>0.9547410542609742</v>
+        <v>0.9547410542609749</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.001860881383934</v>
       </c>
       <c r="K2">
-        <v>1.012431657838547</v>
+        <v>1.012431657838548</v>
       </c>
       <c r="L2">
-        <v>0.9989972659122642</v>
+        <v>0.9989972659122649</v>
       </c>
       <c r="M2">
-        <v>0.9668691268332861</v>
+        <v>0.9668691268332866</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9881940076902863</v>
+        <v>0.9881940076902865</v>
       </c>
       <c r="D3">
-        <v>1.007818047645628</v>
+        <v>1.007818047645629</v>
       </c>
       <c r="E3">
-        <v>0.9959593883826559</v>
+        <v>0.9959593883826563</v>
       </c>
       <c r="F3">
-        <v>0.9669287856511791</v>
+        <v>0.9669287856511793</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038698282168886</v>
+        <v>1.038698282168887</v>
       </c>
       <c r="J3">
         <v>1.009011773244408</v>
       </c>
       <c r="K3">
-        <v>1.018351862938684</v>
+        <v>1.018351862938685</v>
       </c>
       <c r="L3">
         <v>1.006644232000658</v>
       </c>
       <c r="M3">
-        <v>0.9780030690913157</v>
+        <v>0.9780030690913162</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,10 +497,10 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9938822750561146</v>
+        <v>0.9938822750561144</v>
       </c>
       <c r="D4">
-        <v>1.01206289206591</v>
+        <v>1.012062892065909</v>
       </c>
       <c r="E4">
         <v>1.001306066903489</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040713105660542</v>
+        <v>1.040713105660541</v>
       </c>
       <c r="J4">
         <v>1.013443778131167</v>
@@ -524,7 +524,7 @@
         <v>1.011388754366421</v>
       </c>
       <c r="M4">
-        <v>0.9849002366592731</v>
+        <v>0.9849002366592728</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962208113190139</v>
+        <v>0.9962208113190135</v>
       </c>
       <c r="D5">
-        <v>1.013808330415213</v>
+        <v>1.013808330415212</v>
       </c>
       <c r="E5">
         <v>1.003505437116266</v>
       </c>
       <c r="F5">
-        <v>0.9775871697540751</v>
+        <v>0.9775871697540754</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.015263688707173</v>
       </c>
       <c r="K5">
-        <v>1.023522414776427</v>
+        <v>1.023522414776426</v>
       </c>
       <c r="L5">
         <v>1.013338194732631</v>
       </c>
       <c r="M5">
-        <v>0.9877322347861622</v>
+        <v>0.9877322347861626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9966104802569545</v>
+        <v>0.9966104802569543</v>
       </c>
       <c r="D6">
         <v>1.014099185784542</v>
       </c>
       <c r="E6">
-        <v>1.00387198915894</v>
+        <v>1.003871989158939</v>
       </c>
       <c r="F6">
-        <v>0.9781041545856749</v>
+        <v>0.9781041545856747</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.041674138560719</v>
       </c>
       <c r="J6">
-        <v>1.015566811564856</v>
+        <v>1.015566811564855</v>
       </c>
       <c r="K6">
         <v>1.023772958798993</v>
       </c>
       <c r="L6">
-        <v>1.013662962328543</v>
+        <v>1.013662962328542</v>
       </c>
       <c r="M6">
         <v>0.9882039369924153</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9939137249121682</v>
+        <v>0.9939137249121701</v>
       </c>
       <c r="D7">
-        <v>1.012086364589539</v>
+        <v>1.01208636458954</v>
       </c>
       <c r="E7">
-        <v>1.001335640262108</v>
+        <v>1.001335640262109</v>
       </c>
       <c r="F7">
-        <v>0.9745255204795247</v>
+        <v>0.9745255204795265</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.040724204388441</v>
       </c>
       <c r="J7">
-        <v>1.013468261832528</v>
+        <v>1.01346826183253</v>
       </c>
       <c r="K7">
-        <v>1.022038120755556</v>
+        <v>1.022038120755558</v>
       </c>
       <c r="L7">
-        <v>1.011414975912488</v>
+        <v>1.011414975912489</v>
       </c>
       <c r="M7">
-        <v>0.984938336132541</v>
+        <v>0.9849383361325426</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9821821484169758</v>
+        <v>0.9821821484169775</v>
       </c>
       <c r="D8">
-        <v>1.003333317238219</v>
+        <v>1.00333331723822</v>
       </c>
       <c r="E8">
-        <v>0.9903132437891743</v>
+        <v>0.9903132437891761</v>
       </c>
       <c r="F8">
-        <v>0.9589328043684379</v>
+        <v>0.9589328043684392</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.03655378310513</v>
       </c>
       <c r="J8">
-        <v>1.004320143766503</v>
+        <v>1.004320143766504</v>
       </c>
       <c r="K8">
-        <v>1.01446832514892</v>
+        <v>1.014468325148921</v>
       </c>
       <c r="L8">
-        <v>1.00162604704482</v>
+        <v>1.001626047044822</v>
       </c>
       <c r="M8">
-        <v>0.9706993709608117</v>
+        <v>0.9706993709608129</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9594554330052685</v>
+        <v>0.9594554330052689</v>
       </c>
       <c r="D9">
-        <v>0.9864026873011359</v>
+        <v>0.9864026873011368</v>
       </c>
       <c r="E9">
-        <v>0.9690117588943363</v>
+        <v>0.9690117588943371</v>
       </c>
       <c r="F9">
-        <v>0.9285669858251887</v>
+        <v>0.9285669858251895</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028330290803452</v>
       </c>
       <c r="J9">
-        <v>0.9865258982543675</v>
+        <v>0.9865258982543683</v>
       </c>
       <c r="K9">
-        <v>0.9997202922478009</v>
+        <v>0.9997202922478017</v>
       </c>
       <c r="L9">
-        <v>0.9826284374721568</v>
+        <v>0.9826284374721576</v>
       </c>
       <c r="M9">
-        <v>0.9429360848680044</v>
+        <v>0.9429360848680053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9425356686079186</v>
+        <v>0.9425356686079179</v>
       </c>
       <c r="D10">
-        <v>0.9738314515308388</v>
+        <v>0.9738314515308386</v>
       </c>
       <c r="E10">
-        <v>0.9531962095745947</v>
+        <v>0.9531962095745945</v>
       </c>
       <c r="F10">
-        <v>0.9057702173893203</v>
+        <v>0.9057702173893202</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.022113975286022</v>
       </c>
       <c r="J10">
-        <v>0.9732304993210532</v>
+        <v>0.973230499321053</v>
       </c>
       <c r="K10">
-        <v>0.9886898270210003</v>
+        <v>0.9886898270209999</v>
       </c>
       <c r="L10">
-        <v>0.9684652672940475</v>
+        <v>0.9684652672940471</v>
       </c>
       <c r="M10">
-        <v>0.9220782472899051</v>
+        <v>0.922078247289905</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9346752883779736</v>
+        <v>0.9346752883779735</v>
       </c>
       <c r="D11">
-        <v>0.9680035343620645</v>
+        <v>0.9680035343620641</v>
       </c>
       <c r="E11">
-        <v>0.9458612277547991</v>
+        <v>0.9458612277547989</v>
       </c>
       <c r="F11">
-        <v>0.8951093705363523</v>
+        <v>0.8951093705363519</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019205132338483</v>
+        <v>1.019205132338482</v>
       </c>
       <c r="J11">
-        <v>0.9670429193089835</v>
+        <v>0.9670429193089831</v>
       </c>
       <c r="K11">
-        <v>0.9835551804945702</v>
+        <v>0.9835551804945698</v>
       </c>
       <c r="L11">
         <v>0.9618818201338732</v>
       </c>
       <c r="M11">
-        <v>0.9123232727412369</v>
+        <v>0.9123232727412364</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9316627258743081</v>
+        <v>0.9316627258743079</v>
       </c>
       <c r="D12">
-        <v>0.9657722230003516</v>
+        <v>0.9657722230003513</v>
       </c>
       <c r="E12">
         <v>0.9430521125006328</v>
       </c>
       <c r="F12">
-        <v>0.8910101002071209</v>
+        <v>0.8910101002071215</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.018087291827699</v>
       </c>
       <c r="J12">
-        <v>0.9646698569075464</v>
+        <v>0.9646698569075463</v>
       </c>
       <c r="K12">
-        <v>0.9815859252013027</v>
+        <v>0.9815859252013024</v>
       </c>
       <c r="L12">
         <v>0.9593581931873844</v>
       </c>
       <c r="M12">
-        <v>0.9085725054899978</v>
+        <v>0.9085725054899982</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.932313369845439</v>
+        <v>0.9323133698454399</v>
       </c>
       <c r="D13">
-        <v>0.9662540235530466</v>
+        <v>0.9662540235530472</v>
       </c>
       <c r="E13">
-        <v>0.9436587188427089</v>
+        <v>0.9436587188427095</v>
       </c>
       <c r="F13">
-        <v>0.8918961058534831</v>
+        <v>0.8918961058534837</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.018328852107571</v>
       </c>
       <c r="J13">
-        <v>0.965182455968284</v>
+        <v>0.9651824559682846</v>
       </c>
       <c r="K13">
-        <v>0.9820112966911709</v>
+        <v>0.9820112966911715</v>
       </c>
       <c r="L13">
-        <v>0.9599032575272717</v>
+        <v>0.9599032575272721</v>
       </c>
       <c r="M13">
-        <v>0.9093831725731252</v>
+        <v>0.909383172573126</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9344282475517636</v>
+        <v>0.9344282475517621</v>
       </c>
       <c r="D14">
-        <v>0.9678205098038747</v>
+        <v>0.9678205098038737</v>
       </c>
       <c r="E14">
-        <v>0.9456308268811712</v>
+        <v>0.9456308268811701</v>
       </c>
       <c r="F14">
-        <v>0.8947735055582482</v>
+        <v>0.8947735055582465</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019113525099824</v>
+        <v>1.019113525099823</v>
       </c>
       <c r="J14">
-        <v>0.9668483522338316</v>
+        <v>0.9668483522338305</v>
       </c>
       <c r="K14">
-        <v>0.9833937207773996</v>
+        <v>0.9833937207773987</v>
       </c>
       <c r="L14">
-        <v>0.9616748824971431</v>
+        <v>0.9616748824971423</v>
       </c>
       <c r="M14">
-        <v>0.9120159559044682</v>
+        <v>0.9120159559044667</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9357185577995309</v>
+        <v>0.9357185577995304</v>
       </c>
       <c r="D15">
-        <v>0.9687765544015051</v>
+        <v>0.9687765544015052</v>
       </c>
       <c r="E15">
-        <v>0.9468343111884577</v>
+        <v>0.946834311188457</v>
       </c>
       <c r="F15">
-        <v>0.8965271893810274</v>
+        <v>0.896527189381027</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019591875294664</v>
       </c>
       <c r="J15">
-        <v>0.967864523524251</v>
+        <v>0.9678645235242508</v>
       </c>
       <c r="K15">
-        <v>0.9842369817217268</v>
+        <v>0.9842369817217267</v>
       </c>
       <c r="L15">
-        <v>0.9627557131384361</v>
+        <v>0.9627557131384356</v>
       </c>
       <c r="M15">
-        <v>0.913620587927118</v>
+        <v>0.9136205879271174</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.943045072839888</v>
+        <v>0.9430450728398871</v>
       </c>
       <c r="D16">
-        <v>0.9742094253417154</v>
+        <v>0.9742094253417145</v>
       </c>
       <c r="E16">
-        <v>0.9536718358850709</v>
+        <v>0.9536718358850701</v>
       </c>
       <c r="F16">
-        <v>0.906459453322579</v>
+        <v>0.9064594533225782</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022302070636708</v>
+        <v>1.022302070636707</v>
       </c>
       <c r="J16">
-        <v>0.9736312735513369</v>
+        <v>0.9736312735513363</v>
       </c>
       <c r="K16">
-        <v>0.989022390914066</v>
+        <v>0.9890223909140652</v>
       </c>
       <c r="L16">
-        <v>0.9688918499748973</v>
+        <v>0.9688918499748965</v>
       </c>
       <c r="M16">
-        <v>0.922708923786668</v>
+        <v>0.9227089237866672</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9474897962637641</v>
+        <v>0.9474897962637622</v>
       </c>
       <c r="D17">
-        <v>0.9775087837872063</v>
+        <v>0.977508783787205</v>
       </c>
       <c r="E17">
-        <v>0.9578232382276731</v>
+        <v>0.9578232382276715</v>
       </c>
       <c r="F17">
-        <v>0.9124652065697075</v>
+        <v>0.9124652065697055</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023940952437669</v>
+        <v>1.023940952437668</v>
       </c>
       <c r="J17">
-        <v>0.9771269490442178</v>
+        <v>0.9771269490442162</v>
       </c>
       <c r="K17">
-        <v>0.9919230026925391</v>
+        <v>0.9919230026925376</v>
       </c>
       <c r="L17">
-        <v>0.9726135273325511</v>
+        <v>0.9726135273325494</v>
       </c>
       <c r="M17">
-        <v>0.9282043431874533</v>
+        <v>0.9282043431874513</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9500317938520526</v>
+        <v>0.9500317938520517</v>
       </c>
       <c r="D18">
-        <v>0.9793968345284354</v>
+        <v>0.9793968345284345</v>
       </c>
       <c r="E18">
-        <v>0.9601986136763438</v>
+        <v>0.9601986136763427</v>
       </c>
       <c r="F18">
-        <v>0.915893702836447</v>
+        <v>0.915893702836446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024876305217999</v>
+        <v>1.024876305217998</v>
       </c>
       <c r="J18">
-        <v>0.9791251580868271</v>
+        <v>0.979125158086826</v>
       </c>
       <c r="K18">
-        <v>0.9935809419823378</v>
+        <v>0.993580941982337</v>
       </c>
       <c r="L18">
-        <v>0.9747416574415028</v>
+        <v>0.9747416574415017</v>
       </c>
       <c r="M18">
-        <v>0.9313414033095025</v>
+        <v>0.9313414033095017</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9508903152390359</v>
+        <v>0.9508903152390364</v>
       </c>
       <c r="D19">
-        <v>0.9800346705506926</v>
+        <v>0.9800346705506927</v>
       </c>
       <c r="E19">
-        <v>0.9610010472196584</v>
+        <v>0.9610010472196588</v>
       </c>
       <c r="F19">
-        <v>0.9170506328172404</v>
+        <v>0.9170506328172413</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025191872492577</v>
       </c>
       <c r="J19">
-        <v>0.9797998498709942</v>
+        <v>0.9797998498709947</v>
       </c>
       <c r="K19">
-        <v>0.9941407182147345</v>
+        <v>0.9941407182147346</v>
       </c>
       <c r="L19">
-        <v>0.9754603397461925</v>
+        <v>0.975460339746193</v>
       </c>
       <c r="M19">
-        <v>0.9323999644201657</v>
+        <v>0.9323999644201666</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9470182284973879</v>
+        <v>0.9470182284973885</v>
       </c>
       <c r="D20">
-        <v>0.9771586169534792</v>
+        <v>0.9771586169534793</v>
       </c>
       <c r="E20">
-        <v>0.957382671281804</v>
+        <v>0.9573826712818044</v>
       </c>
       <c r="F20">
-        <v>0.911828691241195</v>
+        <v>0.9118286912411953</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023767275332307</v>
+        <v>1.023767275332308</v>
       </c>
       <c r="J20">
-        <v>0.9767561771084857</v>
+        <v>0.9767561771084862</v>
       </c>
       <c r="K20">
-        <v>0.9916153579658719</v>
+        <v>0.9916153579658721</v>
       </c>
       <c r="L20">
-        <v>0.9722187075229849</v>
+        <v>0.9722187075229852</v>
       </c>
       <c r="M20">
-        <v>0.9276219240108886</v>
+        <v>0.9276219240108887</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9338081492611122</v>
+        <v>0.9338081492611128</v>
       </c>
       <c r="D21">
-        <v>0.9673611374113317</v>
+        <v>0.9673611374113322</v>
       </c>
       <c r="E21">
-        <v>0.9450525308052949</v>
+        <v>0.9450525308052953</v>
       </c>
       <c r="F21">
-        <v>0.8939302234783782</v>
+        <v>0.8939302234783789</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.01888353381643</v>
       </c>
       <c r="J21">
-        <v>0.9663599427397943</v>
+        <v>0.966359942739795</v>
       </c>
       <c r="K21">
-        <v>0.982988418968863</v>
+        <v>0.9829884189688636</v>
       </c>
       <c r="L21">
-        <v>0.9611554403520326</v>
+        <v>0.9611554403520332</v>
       </c>
       <c r="M21">
-        <v>0.9112443559347345</v>
+        <v>0.9112443559347353</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9249564168766019</v>
+        <v>0.9249564168766016</v>
       </c>
       <c r="D22">
-        <v>0.960809894620512</v>
+        <v>0.9608098946205116</v>
       </c>
       <c r="E22">
-        <v>0.9368028444213596</v>
+        <v>0.9368028444213589</v>
       </c>
       <c r="F22">
-        <v>0.8818558336832791</v>
+        <v>0.8818558336832785</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015593466966798</v>
+        <v>1.015593466966797</v>
       </c>
       <c r="J22">
-        <v>0.9593841765935514</v>
+        <v>0.959384176593551</v>
       </c>
       <c r="K22">
-        <v>0.9771998525642797</v>
+        <v>0.9771998525642792</v>
       </c>
       <c r="L22">
-        <v>0.9537395668595701</v>
+        <v>0.9537395668595694</v>
       </c>
       <c r="M22">
-        <v>0.9001972624217793</v>
+        <v>0.9001972624217787</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9297057280717411</v>
+        <v>0.92970572807174</v>
       </c>
       <c r="D23">
-        <v>0.9643234451862019</v>
+        <v>0.9643234451862013</v>
       </c>
       <c r="E23">
-        <v>0.9412278949256451</v>
+        <v>0.9412278949256438</v>
       </c>
       <c r="F23">
-        <v>0.888342952161759</v>
+        <v>0.8883429521617581</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.017360302839355</v>
       </c>
       <c r="J23">
-        <v>0.9631278336335475</v>
+        <v>0.9631278336335465</v>
       </c>
       <c r="K23">
-        <v>0.9803063158172914</v>
+        <v>0.9803063158172908</v>
       </c>
       <c r="L23">
-        <v>0.9577186964066335</v>
+        <v>0.9577186964066321</v>
       </c>
       <c r="M23">
-        <v>0.9061322050955913</v>
+        <v>0.9061322050955902</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1266,7 +1266,7 @@
         <v>0.9575818860453231</v>
       </c>
       <c r="F24">
-        <v>0.9121165340161562</v>
+        <v>0.9121165340161557</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023845815789299</v>
       </c>
       <c r="J24">
-        <v>0.9769238382117778</v>
+        <v>0.9769238382117775</v>
       </c>
       <c r="K24">
         <v>0.9917544736575864</v>
       </c>
       <c r="L24">
-        <v>0.9723972406665374</v>
+        <v>0.9723972406665373</v>
       </c>
       <c r="M24">
-        <v>0.9278853039512347</v>
+        <v>0.9278853039512346</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9656098081907697</v>
+        <v>0.9656098081907696</v>
       </c>
       <c r="D25">
-        <v>0.9909831100319367</v>
+        <v>0.9909831100319364</v>
       </c>
       <c r="E25">
-        <v>0.9747735802442624</v>
+        <v>0.9747735802442622</v>
       </c>
       <c r="F25">
-        <v>0.9368151772646612</v>
+        <v>0.9368151772646611</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030573306801456</v>
       </c>
       <c r="J25">
-        <v>0.991352677322335</v>
+        <v>0.9913526773223347</v>
       </c>
       <c r="K25">
         <v>1.003723033128628</v>
       </c>
       <c r="L25">
-        <v>0.9877765482091654</v>
+        <v>0.9877765482091652</v>
       </c>
       <c r="M25">
-        <v>0.950480520301647</v>
+        <v>0.9504805203016468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9790344872713005</v>
+        <v>0.9790646822662504</v>
       </c>
       <c r="D2">
-        <v>1.000986043090019</v>
+        <v>1.00101074843246</v>
       </c>
       <c r="E2">
-        <v>0.9873589661930142</v>
+        <v>0.9873889357804727</v>
       </c>
       <c r="F2">
-        <v>0.9547410542609749</v>
+        <v>0.9547729547459944</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035425283041242</v>
+        <v>1.035439129658253</v>
       </c>
       <c r="J2">
-        <v>1.001860881383934</v>
+        <v>1.001890118914836</v>
       </c>
       <c r="K2">
-        <v>1.012431657838548</v>
+        <v>1.012456019861979</v>
       </c>
       <c r="L2">
-        <v>0.9989972659122649</v>
+        <v>0.9990268043434419</v>
       </c>
       <c r="M2">
-        <v>0.9668691268332866</v>
+        <v>0.9669005274113026</v>
+      </c>
+      <c r="N2">
+        <v>1.001621804063962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9881940076902865</v>
+        <v>0.9882166251839151</v>
       </c>
       <c r="D3">
-        <v>1.007818047645629</v>
+        <v>1.007836760998816</v>
       </c>
       <c r="E3">
-        <v>0.9959593883826563</v>
+        <v>0.9959818685132523</v>
       </c>
       <c r="F3">
-        <v>0.9669287856511793</v>
+        <v>0.9669525338464688</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038698282168887</v>
+        <v>1.038708772298942</v>
       </c>
       <c r="J3">
-        <v>1.009011773244408</v>
+        <v>1.009033753877091</v>
       </c>
       <c r="K3">
-        <v>1.018351862938685</v>
+        <v>1.018370341467128</v>
       </c>
       <c r="L3">
-        <v>1.006644232000658</v>
+        <v>1.00666642157463</v>
       </c>
       <c r="M3">
-        <v>0.9780030690913162</v>
+        <v>0.9780264866534661</v>
+      </c>
+      <c r="N3">
+        <v>1.006714747670243</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9938822750561144</v>
+        <v>0.9939003250444816</v>
       </c>
       <c r="D4">
-        <v>1.012062892065909</v>
+        <v>1.012077984201879</v>
       </c>
       <c r="E4">
-        <v>1.001306066903489</v>
+        <v>1.001324022141516</v>
       </c>
       <c r="F4">
-        <v>0.9744837750872034</v>
+        <v>0.9745026589364219</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040713105660541</v>
+        <v>1.040721563081197</v>
       </c>
       <c r="J4">
-        <v>1.013443778131167</v>
+        <v>1.013461358676617</v>
       </c>
       <c r="K4">
-        <v>1.022017876451124</v>
+        <v>1.022032791775924</v>
       </c>
       <c r="L4">
-        <v>1.011388754366421</v>
+        <v>1.011406493606395</v>
       </c>
       <c r="M4">
-        <v>0.9849002366592728</v>
+        <v>0.9849188774392083</v>
+      </c>
+      <c r="N4">
+        <v>1.0098671956097</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962208113190135</v>
+        <v>0.9962370122128986</v>
       </c>
       <c r="D5">
-        <v>1.013808330415212</v>
+        <v>1.01382195467227</v>
       </c>
       <c r="E5">
-        <v>1.003505437116266</v>
+        <v>1.003521558309074</v>
       </c>
       <c r="F5">
-        <v>0.9775871697540754</v>
+        <v>0.977604094611641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041537094865131</v>
+        <v>1.041544727347915</v>
       </c>
       <c r="J5">
-        <v>1.015263688707173</v>
+        <v>1.015279482369112</v>
       </c>
       <c r="K5">
-        <v>1.023522414776426</v>
+        <v>1.023535884072935</v>
       </c>
       <c r="L5">
-        <v>1.013338194732631</v>
+        <v>1.013354127880723</v>
       </c>
       <c r="M5">
-        <v>0.9877322347861626</v>
+        <v>0.9877489489747602</v>
+      </c>
+      <c r="N5">
+        <v>1.011160656719463</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9966104802569543</v>
+        <v>0.9966263746071542</v>
       </c>
       <c r="D6">
-        <v>1.014099185784542</v>
+        <v>1.014112566595608</v>
       </c>
       <c r="E6">
-        <v>1.003871989158939</v>
+        <v>1.003887806181449</v>
       </c>
       <c r="F6">
-        <v>0.9781041545856747</v>
+        <v>0.9781207552436714</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041674138560719</v>
+        <v>1.041681634172783</v>
       </c>
       <c r="J6">
-        <v>1.015566811564855</v>
+        <v>1.015582308685673</v>
       </c>
       <c r="K6">
-        <v>1.023772958798993</v>
+        <v>1.023786188179347</v>
       </c>
       <c r="L6">
-        <v>1.013662962328542</v>
+        <v>1.013678595814892</v>
       </c>
       <c r="M6">
-        <v>0.9882039369924153</v>
+        <v>0.9882203321842521</v>
+      </c>
+      <c r="N6">
+        <v>1.011376032860769</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9939137249121701</v>
+        <v>0.9939317499246334</v>
       </c>
       <c r="D7">
-        <v>1.01208636458954</v>
+        <v>1.012101436905738</v>
       </c>
       <c r="E7">
-        <v>1.001335640262109</v>
+        <v>1.001353570735908</v>
       </c>
       <c r="F7">
-        <v>0.9745255204795265</v>
+        <v>0.9745443778294334</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040724204388441</v>
+        <v>1.040732650674322</v>
       </c>
       <c r="J7">
-        <v>1.01346826183253</v>
+        <v>1.013485818263779</v>
       </c>
       <c r="K7">
-        <v>1.022038120755558</v>
+        <v>1.022053016562074</v>
       </c>
       <c r="L7">
-        <v>1.011414975912489</v>
+        <v>1.011432690774432</v>
       </c>
       <c r="M7">
-        <v>0.9849383361325426</v>
+        <v>0.9849569508624478</v>
+      </c>
+      <c r="N7">
+        <v>1.009884600990636</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9821821484169775</v>
+        <v>0.9822097069566028</v>
       </c>
       <c r="D8">
-        <v>1.00333331723822</v>
+        <v>1.003355940078868</v>
       </c>
       <c r="E8">
-        <v>0.9903132437891761</v>
+        <v>0.9903406100323386</v>
       </c>
       <c r="F8">
-        <v>0.9589328043684392</v>
+        <v>0.9589618565091846</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03655378310513</v>
+        <v>1.036566464133635</v>
       </c>
       <c r="J8">
-        <v>1.004320143766504</v>
+        <v>1.004346862420306</v>
       </c>
       <c r="K8">
-        <v>1.014468325148921</v>
+        <v>1.014490644111036</v>
       </c>
       <c r="L8">
-        <v>1.001626047044822</v>
+        <v>1.001653033405167</v>
       </c>
       <c r="M8">
-        <v>0.9706993709608129</v>
+        <v>0.9707279855220606</v>
+      </c>
+      <c r="N8">
+        <v>1.003374153682917</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9594554330052689</v>
+        <v>0.9595028847804458</v>
       </c>
       <c r="D9">
-        <v>0.9864026873011368</v>
+        <v>0.9864409579914143</v>
       </c>
       <c r="E9">
-        <v>0.9690117588943371</v>
+        <v>0.9690587024399397</v>
       </c>
       <c r="F9">
-        <v>0.9285669858251895</v>
+        <v>0.9286178597986708</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028330290803452</v>
+        <v>1.028351707628509</v>
       </c>
       <c r="J9">
-        <v>0.9865258982543683</v>
+        <v>0.9865714674252548</v>
       </c>
       <c r="K9">
-        <v>0.9997202922478017</v>
+        <v>0.9997579197874474</v>
       </c>
       <c r="L9">
-        <v>0.9826284374721576</v>
+        <v>0.9826745549960831</v>
       </c>
       <c r="M9">
-        <v>0.9429360848680053</v>
+        <v>0.942985958344008</v>
+      </c>
+      <c r="N9">
+        <v>0.990679136802162</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9425356686079179</v>
+        <v>0.9425994350595643</v>
       </c>
       <c r="D10">
-        <v>0.9738314515308386</v>
+        <v>0.9738824350132083</v>
       </c>
       <c r="E10">
-        <v>0.9531962095745945</v>
+        <v>0.9532590949086315</v>
       </c>
       <c r="F10">
-        <v>0.9057702173893202</v>
+        <v>0.9058395900046903</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022113975286022</v>
+        <v>1.022142455849091</v>
       </c>
       <c r="J10">
-        <v>0.973230499321053</v>
+        <v>0.9732912704426239</v>
       </c>
       <c r="K10">
-        <v>0.9886898270209999</v>
+        <v>0.9887398240708971</v>
       </c>
       <c r="L10">
-        <v>0.9684652672940471</v>
+        <v>0.9685268654598364</v>
       </c>
       <c r="M10">
-        <v>0.922078247289905</v>
+        <v>0.9221459936815123</v>
+      </c>
+      <c r="N10">
+        <v>0.981176631472419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9346752883779735</v>
+        <v>0.9347471654021603</v>
       </c>
       <c r="D11">
-        <v>0.9680035343620641</v>
+        <v>0.9680607956409554</v>
       </c>
       <c r="E11">
-        <v>0.9458612277547989</v>
+        <v>0.945932000760937</v>
       </c>
       <c r="F11">
-        <v>0.8951093705363519</v>
+        <v>0.8951881556230111</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019205132338482</v>
+        <v>1.019237091713645</v>
       </c>
       <c r="J11">
-        <v>0.9670429193089831</v>
+        <v>0.9671111666406292</v>
       </c>
       <c r="K11">
-        <v>0.9835551804945698</v>
+        <v>0.9836112657364209</v>
       </c>
       <c r="L11">
-        <v>0.9618818201338732</v>
+        <v>0.9619510477838563</v>
       </c>
       <c r="M11">
-        <v>0.9123232727412364</v>
+        <v>0.9124000636343984</v>
+      </c>
+      <c r="N11">
+        <v>0.9767514616936209</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9316627258743079</v>
+        <v>0.9317378120000936</v>
       </c>
       <c r="D12">
-        <v>0.9657722230003513</v>
+        <v>0.9658319604179961</v>
       </c>
       <c r="E12">
-        <v>0.9430521125006328</v>
+        <v>0.9431259996752962</v>
       </c>
       <c r="F12">
-        <v>0.8910101002071215</v>
+        <v>0.8910926506223923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018087291827699</v>
+        <v>1.018120621798887</v>
       </c>
       <c r="J12">
-        <v>0.9646698569075463</v>
+        <v>0.9647410481201333</v>
       </c>
       <c r="K12">
-        <v>0.9815859252013024</v>
+        <v>0.9816444083982495</v>
       </c>
       <c r="L12">
-        <v>0.9593581931873844</v>
+        <v>0.9594304278867432</v>
       </c>
       <c r="M12">
-        <v>0.9085725054899982</v>
+        <v>0.9086529054946781</v>
+      </c>
+      <c r="N12">
+        <v>0.9750540431560104</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9323133698454399</v>
+        <v>0.9323877579388126</v>
       </c>
       <c r="D13">
-        <v>0.9662540235530472</v>
+        <v>0.96631322274548</v>
       </c>
       <c r="E13">
-        <v>0.9436587188427095</v>
+        <v>0.9437319289563696</v>
       </c>
       <c r="F13">
-        <v>0.8918961058534837</v>
+        <v>0.891977835238786</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018328852107571</v>
+        <v>1.018361884231139</v>
       </c>
       <c r="J13">
-        <v>0.9651824559682846</v>
+        <v>0.9652530075117899</v>
       </c>
       <c r="K13">
-        <v>0.9820112966911715</v>
+        <v>0.9820692588161927</v>
       </c>
       <c r="L13">
-        <v>0.9599032575272721</v>
+        <v>0.9599748386989273</v>
       </c>
       <c r="M13">
-        <v>0.909383172573126</v>
+        <v>0.9094627860434442</v>
+      </c>
+      <c r="N13">
+        <v>0.975420707989325</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9344282475517621</v>
+        <v>0.9345003855580825</v>
       </c>
       <c r="D14">
-        <v>0.9678205098038737</v>
+        <v>0.9678779726212241</v>
       </c>
       <c r="E14">
-        <v>0.9456308268811701</v>
+        <v>0.9457018532905687</v>
       </c>
       <c r="F14">
-        <v>0.8947735055582465</v>
+        <v>0.8948525959829989</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019113525099823</v>
+        <v>1.019145596062574</v>
       </c>
       <c r="J14">
-        <v>0.9668483522338305</v>
+        <v>0.9669168392752078</v>
       </c>
       <c r="K14">
-        <v>0.9833937207773987</v>
+        <v>0.9834500012644373</v>
       </c>
       <c r="L14">
-        <v>0.9616748824971423</v>
+        <v>0.9617443549417712</v>
       </c>
       <c r="M14">
-        <v>0.9120159559044667</v>
+        <v>0.9120930396573991</v>
+      </c>
+      <c r="N14">
+        <v>0.9766122952312964</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9357185577995304</v>
+        <v>0.9357893368885249</v>
       </c>
       <c r="D15">
-        <v>0.9687765544015052</v>
+        <v>0.9688329675009046</v>
       </c>
       <c r="E15">
-        <v>0.946834311188457</v>
+        <v>0.9469040178674708</v>
       </c>
       <c r="F15">
-        <v>0.896527189381027</v>
+        <v>0.8966046916266556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019591875294664</v>
+        <v>1.019623364988223</v>
       </c>
       <c r="J15">
-        <v>0.9678645235242508</v>
+        <v>0.9679317618322943</v>
       </c>
       <c r="K15">
-        <v>0.9842369817217267</v>
+        <v>0.9842922451314055</v>
       </c>
       <c r="L15">
-        <v>0.9627557131384356</v>
+        <v>0.962823910475445</v>
       </c>
       <c r="M15">
-        <v>0.9136205879271174</v>
+        <v>0.91369614803736</v>
+      </c>
+      <c r="N15">
+        <v>0.9773391138297027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9430450728398871</v>
+        <v>0.9431083261304282</v>
       </c>
       <c r="D16">
-        <v>0.9742094253417145</v>
+        <v>0.9742600106757257</v>
       </c>
       <c r="E16">
-        <v>0.9536718358850701</v>
+        <v>0.9537342213317034</v>
       </c>
       <c r="F16">
-        <v>0.9064594533225782</v>
+        <v>0.9065282353388042</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022302070636707</v>
+        <v>1.022330330370234</v>
       </c>
       <c r="J16">
-        <v>0.9736312735513363</v>
+        <v>0.9736915698800295</v>
       </c>
       <c r="K16">
-        <v>0.9890223909140652</v>
+        <v>0.9890720014107596</v>
       </c>
       <c r="L16">
-        <v>0.9688918499748965</v>
+        <v>0.9689529639666239</v>
       </c>
       <c r="M16">
-        <v>0.9227089237866672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9227761015761099</v>
+      </c>
+      <c r="N16">
+        <v>0.9814632073503939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9474897962637622</v>
+        <v>0.9475486328873801</v>
       </c>
       <c r="D17">
-        <v>0.977508783787205</v>
+        <v>0.9775559376956965</v>
       </c>
       <c r="E17">
-        <v>0.9578232382276715</v>
+        <v>0.9578813171302331</v>
       </c>
       <c r="F17">
-        <v>0.9124652065697055</v>
+        <v>0.9125289292870605</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023940952437668</v>
+        <v>1.02396730793856</v>
       </c>
       <c r="J17">
-        <v>0.9771269490442162</v>
+        <v>0.9771831500445052</v>
       </c>
       <c r="K17">
-        <v>0.9919230026925376</v>
+        <v>0.9919692794983348</v>
       </c>
       <c r="L17">
-        <v>0.9726135273325494</v>
+        <v>0.9726704668620054</v>
       </c>
       <c r="M17">
-        <v>0.9282043431874513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9282666447339404</v>
+      </c>
+      <c r="N17">
+        <v>0.9839625151045385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9500317938520517</v>
+        <v>0.9500881520435036</v>
       </c>
       <c r="D18">
-        <v>0.9793968345284345</v>
+        <v>0.97944205924179</v>
       </c>
       <c r="E18">
-        <v>0.9601986136763427</v>
+        <v>0.960254272692679</v>
       </c>
       <c r="F18">
-        <v>0.915893702836446</v>
+        <v>0.9159546050415411</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024876305217998</v>
+        <v>1.024901589306785</v>
       </c>
       <c r="J18">
-        <v>0.979125158086826</v>
+        <v>0.9791790539175742</v>
       </c>
       <c r="K18">
-        <v>0.993580941982337</v>
+        <v>0.9936253427784421</v>
       </c>
       <c r="L18">
-        <v>0.9747416574415017</v>
+        <v>0.9747962486796425</v>
       </c>
       <c r="M18">
-        <v>0.9313414033095017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9314009821723436</v>
+      </c>
+      <c r="N18">
+        <v>0.985390910916639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9508903152390364</v>
+        <v>0.9509458439310479</v>
       </c>
       <c r="D19">
-        <v>0.9800346705506927</v>
+        <v>0.9800792490061238</v>
       </c>
       <c r="E19">
-        <v>0.9610010472196588</v>
+        <v>0.9610558958069274</v>
       </c>
       <c r="F19">
-        <v>0.9170506328172413</v>
+        <v>0.9171105939766567</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025191872492577</v>
+        <v>1.025216797534102</v>
       </c>
       <c r="J19">
-        <v>0.9797998498709947</v>
+        <v>0.9798529730443758</v>
       </c>
       <c r="K19">
-        <v>0.9941407182147346</v>
+        <v>0.9941844902802813</v>
       </c>
       <c r="L19">
-        <v>0.975460339746193</v>
+        <v>0.9755141441046897</v>
       </c>
       <c r="M19">
-        <v>0.9323999644201666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.932458634197764</v>
+      </c>
+      <c r="N19">
+        <v>0.9858731574510241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9470182284973885</v>
+        <v>0.9470775286345342</v>
       </c>
       <c r="D20">
-        <v>0.9771586169534793</v>
+        <v>0.9772061313683403</v>
       </c>
       <c r="E20">
-        <v>0.9573826712818044</v>
+        <v>0.9574412024887352</v>
       </c>
       <c r="F20">
-        <v>0.9118286912411953</v>
+        <v>0.911892942918338</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023767275332308</v>
+        <v>1.023793830979821</v>
       </c>
       <c r="J20">
-        <v>0.9767561771084862</v>
+        <v>0.97681280865229</v>
       </c>
       <c r="K20">
-        <v>0.9916153579658721</v>
+        <v>0.9916619851972792</v>
       </c>
       <c r="L20">
-        <v>0.9722187075229852</v>
+        <v>0.9722760857640013</v>
       </c>
       <c r="M20">
-        <v>0.9276219240108887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9276847358319241</v>
+      </c>
+      <c r="N20">
+        <v>0.9836974506783279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9338081492611128</v>
+        <v>0.9338809440556702</v>
       </c>
       <c r="D21">
-        <v>0.9673611374113322</v>
+        <v>0.9674191072915521</v>
       </c>
       <c r="E21">
-        <v>0.9450525308052953</v>
+        <v>0.9451241948187256</v>
       </c>
       <c r="F21">
-        <v>0.8939302234783789</v>
+        <v>0.8940100830048583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01888353381643</v>
+        <v>1.018915885504121</v>
       </c>
       <c r="J21">
-        <v>0.966359942739795</v>
+        <v>0.9664290328017285</v>
       </c>
       <c r="K21">
-        <v>0.9829884189688636</v>
+        <v>0.9830451906297289</v>
       </c>
       <c r="L21">
-        <v>0.9611554403520332</v>
+        <v>0.9612255286551394</v>
       </c>
       <c r="M21">
-        <v>0.9112443559347353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9113221772095014</v>
+      </c>
+      <c r="N21">
+        <v>0.9762629505181526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9249564168766016</v>
+        <v>0.9250388635759645</v>
       </c>
       <c r="D22">
-        <v>0.9608098946205116</v>
+        <v>0.9608752948030317</v>
       </c>
       <c r="E22">
-        <v>0.9368028444213589</v>
+        <v>0.9368838602586171</v>
       </c>
       <c r="F22">
-        <v>0.8818558336832785</v>
+        <v>0.8819471104580944</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015593466966797</v>
+        <v>1.01562992832276</v>
       </c>
       <c r="J22">
-        <v>0.959384176593551</v>
+        <v>0.9594620906029243</v>
       </c>
       <c r="K22">
-        <v>0.9771998525642792</v>
+        <v>0.9772638128550087</v>
       </c>
       <c r="L22">
-        <v>0.9537395668595694</v>
+        <v>0.9538186743904761</v>
       </c>
       <c r="M22">
-        <v>0.9001972624217787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9002860074805754</v>
+      </c>
+      <c r="N22">
+        <v>0.9712729433345098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.92970572807174</v>
+        <v>0.9297829305085872</v>
       </c>
       <c r="D23">
-        <v>0.9643234451862013</v>
+        <v>0.9643848131322763</v>
       </c>
       <c r="E23">
-        <v>0.9412278949256438</v>
+        <v>0.9413038337418845</v>
       </c>
       <c r="F23">
-        <v>0.8883429521617581</v>
+        <v>0.8884279986636726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017360302839355</v>
+        <v>1.017394534887862</v>
       </c>
       <c r="J23">
-        <v>0.9631278336335465</v>
+        <v>0.9632009619436095</v>
       </c>
       <c r="K23">
-        <v>0.9803063158172908</v>
+        <v>0.9803663770465463</v>
       </c>
       <c r="L23">
-        <v>0.9577186964066321</v>
+        <v>0.9577929106173033</v>
       </c>
       <c r="M23">
-        <v>0.9061322050955902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9062149948443148</v>
+      </c>
+      <c r="N23">
+        <v>0.9739509978822014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9472314649147969</v>
+        <v>0.947290555310917</v>
       </c>
       <c r="D24">
-        <v>0.9773169541448682</v>
+        <v>0.9773643054410167</v>
       </c>
       <c r="E24">
-        <v>0.9575818860453231</v>
+        <v>0.9576402125935315</v>
       </c>
       <c r="F24">
-        <v>0.9121165340161557</v>
+        <v>0.9121805462800423</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023845815789299</v>
+        <v>1.023872280878834</v>
       </c>
       <c r="J24">
-        <v>0.9769238382117775</v>
+        <v>0.9769802749555943</v>
       </c>
       <c r="K24">
-        <v>0.9917544736575864</v>
+        <v>0.991800942337037</v>
       </c>
       <c r="L24">
-        <v>0.9723972406665373</v>
+        <v>0.9724544204074926</v>
       </c>
       <c r="M24">
-        <v>0.9278853039512346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9279478848293625</v>
+      </c>
+      <c r="N24">
+        <v>0.9838173122463976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9656098081907696</v>
+        <v>0.9656516654660746</v>
       </c>
       <c r="D25">
-        <v>0.9909831100319364</v>
+        <v>0.991016995850053</v>
       </c>
       <c r="E25">
-        <v>0.9747735802442622</v>
+        <v>0.9748150335845648</v>
       </c>
       <c r="F25">
-        <v>0.9368151772646611</v>
+        <v>0.93685983581024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030573306801456</v>
+        <v>1.030592280636963</v>
       </c>
       <c r="J25">
-        <v>0.9913526773223347</v>
+        <v>0.9913929810527008</v>
       </c>
       <c r="K25">
-        <v>1.003723033128628</v>
+        <v>1.003756380602235</v>
       </c>
       <c r="L25">
-        <v>0.9877765482091652</v>
+        <v>0.9878173144908259</v>
       </c>
       <c r="M25">
-        <v>0.9504805203016468</v>
+        <v>0.9505243584723632</v>
+      </c>
+      <c r="N25">
+        <v>0.9941259283367593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.008981841442631</v>
+      </c>
+      <c r="D2">
+        <v>1.027078151634521</v>
+      </c>
+      <c r="E2">
+        <v>1.01709797725572</v>
+      </c>
+      <c r="F2">
+        <v>1.032085411536757</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.051519699177658</v>
+      </c>
+      <c r="J2">
+        <v>1.030897186268976</v>
+      </c>
+      <c r="K2">
+        <v>1.038172706614362</v>
+      </c>
+      <c r="L2">
+        <v>1.02832414039613</v>
+      </c>
+      <c r="M2">
+        <v>1.043115135363806</v>
+      </c>
+      <c r="N2">
+        <v>1.032361178519037</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.020839231301163</v>
+      </c>
+      <c r="D3">
+        <v>1.036449544650463</v>
+      </c>
+      <c r="E3">
+        <v>1.028421598537927</v>
+      </c>
+      <c r="F3">
+        <v>1.042113139629208</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.056040556893156</v>
+      </c>
+      <c r="J3">
+        <v>1.04077748070431</v>
+      </c>
+      <c r="K3">
+        <v>1.046636357671838</v>
+      </c>
+      <c r="L3">
+        <v>1.038703289781473</v>
+      </c>
+      <c r="M3">
+        <v>1.05223410415286</v>
+      </c>
+      <c r="N3">
+        <v>1.042255504105756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.028154729637459</v>
+      </c>
+      <c r="D4">
+        <v>1.042229609638678</v>
+      </c>
+      <c r="E4">
+        <v>1.035413623535659</v>
+      </c>
+      <c r="F4">
+        <v>1.048304720036717</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.058809893815259</v>
+      </c>
+      <c r="J4">
+        <v>1.046864660587998</v>
+      </c>
+      <c r="K4">
+        <v>1.051843736959568</v>
+      </c>
+      <c r="L4">
+        <v>1.045102629380454</v>
+      </c>
+      <c r="M4">
+        <v>1.057853113854996</v>
+      </c>
+      <c r="N4">
+        <v>1.048351328483088</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.031152168634078</v>
+      </c>
+      <c r="D5">
+        <v>1.044597323374484</v>
+      </c>
+      <c r="E5">
+        <v>1.038279802157994</v>
+      </c>
+      <c r="F5">
+        <v>1.050842596509115</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.059939754141706</v>
+      </c>
+      <c r="J5">
+        <v>1.049356674903519</v>
+      </c>
+      <c r="K5">
+        <v>1.053973848791512</v>
+      </c>
+      <c r="L5">
+        <v>1.047723589874652</v>
+      </c>
+      <c r="M5">
+        <v>1.060153599877667</v>
+      </c>
+      <c r="N5">
+        <v>1.050846881744775</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.031651075883279</v>
+      </c>
+      <c r="D6">
+        <v>1.044991375762882</v>
+      </c>
+      <c r="E6">
+        <v>1.03875693386525</v>
+      </c>
+      <c r="F6">
+        <v>1.051265061912159</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.060127525874377</v>
+      </c>
+      <c r="J6">
+        <v>1.049771328939996</v>
+      </c>
+      <c r="K6">
+        <v>1.054328182218143</v>
+      </c>
+      <c r="L6">
+        <v>1.048159767376591</v>
+      </c>
+      <c r="M6">
+        <v>1.060536390811805</v>
+      </c>
+      <c r="N6">
+        <v>1.051262124637546</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.028195078943137</v>
+      </c>
+      <c r="D7">
+        <v>1.042261484672632</v>
+      </c>
+      <c r="E7">
+        <v>1.035452200981923</v>
+      </c>
+      <c r="F7">
+        <v>1.048338879560921</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.05882512249601</v>
+      </c>
+      <c r="J7">
+        <v>1.046898214830688</v>
+      </c>
+      <c r="K7">
+        <v>1.051872425187595</v>
+      </c>
+      <c r="L7">
+        <v>1.045137915273866</v>
+      </c>
+      <c r="M7">
+        <v>1.057884088784324</v>
+      </c>
+      <c r="N7">
+        <v>1.048384930376651</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.013067885323954</v>
+      </c>
+      <c r="D8">
+        <v>1.03030775146348</v>
+      </c>
+      <c r="E8">
+        <v>1.020998756338487</v>
+      </c>
+      <c r="F8">
+        <v>1.035539756616737</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.053081764251093</v>
+      </c>
+      <c r="J8">
+        <v>1.034303689704966</v>
+      </c>
+      <c r="K8">
+        <v>1.041092257117558</v>
+      </c>
+      <c r="L8">
+        <v>1.03190160459993</v>
+      </c>
+      <c r="M8">
+        <v>1.046258912755913</v>
+      </c>
+      <c r="N8">
+        <v>1.035772519580639</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9832703261758902</v>
+      </c>
+      <c r="D9">
+        <v>1.006758595002685</v>
+      </c>
+      <c r="E9">
+        <v>0.9925848923568085</v>
+      </c>
+      <c r="F9">
+        <v>1.010382828011023</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.041605531659518</v>
+      </c>
+      <c r="J9">
+        <v>1.009428006052891</v>
+      </c>
+      <c r="K9">
+        <v>1.019742962234933</v>
+      </c>
+      <c r="L9">
+        <v>1.005799431161712</v>
+      </c>
+      <c r="M9">
+        <v>1.023309667548183</v>
+      </c>
+      <c r="N9">
+        <v>1.010861509604496</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9605690014839294</v>
+      </c>
+      <c r="D10">
+        <v>0.9888366916852726</v>
+      </c>
+      <c r="E10">
+        <v>0.9709901373983451</v>
+      </c>
+      <c r="F10">
+        <v>0.9912792699882075</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.032757427469363</v>
+      </c>
+      <c r="J10">
+        <v>0.9904393804886306</v>
+      </c>
+      <c r="K10">
+        <v>1.003410471383509</v>
+      </c>
+      <c r="L10">
+        <v>0.9859037016361029</v>
+      </c>
+      <c r="M10">
+        <v>1.005807785534161</v>
+      </c>
+      <c r="N10">
+        <v>0.9918459180139093</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9498390915750566</v>
+      </c>
+      <c r="D11">
+        <v>0.9803768409980325</v>
+      </c>
+      <c r="E11">
+        <v>0.9607998128893299</v>
+      </c>
+      <c r="F11">
+        <v>0.9822722061703237</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.028552853647192</v>
+      </c>
+      <c r="J11">
+        <v>0.9814584814738987</v>
+      </c>
+      <c r="K11">
+        <v>0.9956785585168227</v>
+      </c>
+      <c r="L11">
+        <v>0.9765008883137518</v>
+      </c>
+      <c r="M11">
+        <v>0.9975363696404725</v>
+      </c>
+      <c r="N11">
+        <v>0.9828522650924529</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9456917131679341</v>
+      </c>
+      <c r="D12">
+        <v>0.9771092948558144</v>
+      </c>
+      <c r="E12">
+        <v>0.9568639436775669</v>
+      </c>
+      <c r="F12">
+        <v>0.978794952943258</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.026924605787484</v>
+      </c>
+      <c r="J12">
+        <v>0.9779866202479528</v>
+      </c>
+      <c r="K12">
+        <v>0.9926885892533965</v>
+      </c>
+      <c r="L12">
+        <v>0.9728670055979964</v>
+      </c>
+      <c r="M12">
+        <v>0.9943400051263311</v>
+      </c>
+      <c r="N12">
+        <v>0.9793754734253381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9465891777311726</v>
+      </c>
+      <c r="D13">
+        <v>0.9778162478565939</v>
+      </c>
+      <c r="E13">
+        <v>0.9577154979492819</v>
+      </c>
+      <c r="F13">
+        <v>0.9795472020208605</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.02727708012261</v>
+      </c>
+      <c r="J13">
+        <v>0.978737924010507</v>
+      </c>
+      <c r="K13">
+        <v>0.9933356522326759</v>
+      </c>
+      <c r="L13">
+        <v>0.9736533215129255</v>
+      </c>
+      <c r="M13">
+        <v>0.9950316317940899</v>
+      </c>
+      <c r="N13">
+        <v>0.9801278441254105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.949499751463756</v>
+      </c>
+      <c r="D14">
+        <v>0.980109435906205</v>
+      </c>
+      <c r="E14">
+        <v>0.9604777161908211</v>
+      </c>
+      <c r="F14">
+        <v>0.9819876057454868</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.02841968965191</v>
+      </c>
+      <c r="J14">
+        <v>0.9811744204948001</v>
+      </c>
+      <c r="K14">
+        <v>0.9954339430310497</v>
+      </c>
+      <c r="L14">
+        <v>0.9762035491524809</v>
+      </c>
+      <c r="M14">
+        <v>0.9972748228330535</v>
+      </c>
+      <c r="N14">
+        <v>0.9825678007141817</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9512706794559493</v>
+      </c>
+      <c r="D15">
+        <v>0.9815050551372078</v>
+      </c>
+      <c r="E15">
+        <v>0.9621587769537026</v>
+      </c>
+      <c r="F15">
+        <v>0.9834730363266401</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.029114516130683</v>
+      </c>
+      <c r="J15">
+        <v>0.9826568424840203</v>
+      </c>
+      <c r="K15">
+        <v>0.9967104747317677</v>
+      </c>
+      <c r="L15">
+        <v>0.9777553093853932</v>
+      </c>
+      <c r="M15">
+        <v>0.9986398017223462</v>
+      </c>
+      <c r="N15">
+        <v>0.9840523279126628</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9612600495041599</v>
+      </c>
+      <c r="D16">
+        <v>0.9893818198493185</v>
+      </c>
+      <c r="E16">
+        <v>0.9716468053719217</v>
+      </c>
+      <c r="F16">
+        <v>0.9918598785145197</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.033027785270956</v>
+      </c>
+      <c r="J16">
+        <v>0.9910176943378134</v>
+      </c>
+      <c r="K16">
+        <v>1.00390822206773</v>
+      </c>
+      <c r="L16">
+        <v>0.9865093296743207</v>
+      </c>
+      <c r="M16">
+        <v>1.006340562300776</v>
+      </c>
+      <c r="N16">
+        <v>0.9924250531350913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9672686509088211</v>
+      </c>
+      <c r="D17">
+        <v>0.9941229426401275</v>
+      </c>
+      <c r="E17">
+        <v>0.9773583398298182</v>
+      </c>
+      <c r="F17">
+        <v>0.9969107544058489</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.03537607512178</v>
+      </c>
+      <c r="J17">
+        <v>0.996045472442576</v>
+      </c>
+      <c r="K17">
+        <v>1.008234808674089</v>
+      </c>
+      <c r="L17">
+        <v>0.9917753578584568</v>
+      </c>
+      <c r="M17">
+        <v>1.010973166970978</v>
+      </c>
+      <c r="N17">
+        <v>0.9974599712614571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9706886556215318</v>
+      </c>
+      <c r="D18">
+        <v>0.9968224728688952</v>
+      </c>
+      <c r="E18">
+        <v>0.9806107390498756</v>
+      </c>
+      <c r="F18">
+        <v>0.9997876171689903</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.036710609720951</v>
+      </c>
+      <c r="J18">
+        <v>0.9989066492409341</v>
+      </c>
+      <c r="K18">
+        <v>1.010696280913536</v>
+      </c>
+      <c r="L18">
+        <v>0.9947727655194413</v>
+      </c>
+      <c r="M18">
+        <v>1.01361001762449</v>
+      </c>
+      <c r="N18">
+        <v>1.00032521125905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9718411083330351</v>
+      </c>
+      <c r="D19">
+        <v>0.9977322881112771</v>
+      </c>
+      <c r="E19">
+        <v>0.9817069528478455</v>
+      </c>
+      <c r="F19">
+        <v>1.000757360195112</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.037159953554114</v>
+      </c>
+      <c r="J19">
+        <v>0.9998706880896253</v>
+      </c>
+      <c r="K19">
+        <v>1.011525526066478</v>
+      </c>
+      <c r="L19">
+        <v>0.9957828154024648</v>
+      </c>
+      <c r="M19">
+        <v>1.014498560097239</v>
+      </c>
+      <c r="N19">
+        <v>1.001290619153484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.966632914803074</v>
+      </c>
+      <c r="D20">
+        <v>0.9936212070449152</v>
+      </c>
+      <c r="E20">
+        <v>0.9767538773261335</v>
+      </c>
+      <c r="F20">
+        <v>0.9963761378347701</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.03512783081386</v>
+      </c>
+      <c r="J20">
+        <v>0.9955135678307694</v>
+      </c>
+      <c r="K20">
+        <v>1.007777154910023</v>
+      </c>
+      <c r="L20">
+        <v>0.9912181801555773</v>
+      </c>
+      <c r="M20">
+        <v>1.010483009201812</v>
+      </c>
+      <c r="N20">
+        <v>0.9969273112840914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9486473807066931</v>
+      </c>
+      <c r="D21">
+        <v>0.9794377961757679</v>
+      </c>
+      <c r="E21">
+        <v>0.9596687071362274</v>
+      </c>
+      <c r="F21">
+        <v>0.9812728032084882</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.028085153951861</v>
+      </c>
+      <c r="J21">
+        <v>0.980460895597984</v>
+      </c>
+      <c r="K21">
+        <v>0.9948194856458072</v>
+      </c>
+      <c r="L21">
+        <v>0.9754566885319078</v>
+      </c>
+      <c r="M21">
+        <v>0.996617871268158</v>
+      </c>
+      <c r="N21">
+        <v>0.9818532625301696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9363831750482229</v>
+      </c>
+      <c r="D22">
+        <v>0.9697809801408536</v>
+      </c>
+      <c r="E22">
+        <v>0.9480362482966098</v>
+      </c>
+      <c r="F22">
+        <v>0.9709994691981632</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.02326479380707</v>
+      </c>
+      <c r="J22">
+        <v>0.9701937725114781</v>
+      </c>
+      <c r="K22">
+        <v>0.9859758298584514</v>
+      </c>
+      <c r="L22">
+        <v>0.9647125255828516</v>
+      </c>
+      <c r="M22">
+        <v>0.9871681871283673</v>
+      </c>
+      <c r="N22">
+        <v>0.9715715589512254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9429864557628173</v>
+      </c>
+      <c r="D23">
+        <v>0.9749787236380946</v>
+      </c>
+      <c r="E23">
+        <v>0.9542975500170964</v>
+      </c>
+      <c r="F23">
+        <v>0.976528118593424</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.025861707998601</v>
+      </c>
+      <c r="J23">
+        <v>0.9757218977849452</v>
+      </c>
+      <c r="K23">
+        <v>0.9907379645237986</v>
+      </c>
+      <c r="L23">
+        <v>0.9704969029863922</v>
+      </c>
+      <c r="M23">
+        <v>0.9922553775774819</v>
+      </c>
+      <c r="N23">
+        <v>0.9771075347966661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9669204364455011</v>
+      </c>
+      <c r="D24">
+        <v>0.9938481219205052</v>
+      </c>
+      <c r="E24">
+        <v>0.977027250400432</v>
+      </c>
+      <c r="F24">
+        <v>0.9966179204533931</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.035240109705364</v>
+      </c>
+      <c r="J24">
+        <v>0.9957541318156936</v>
+      </c>
+      <c r="K24">
+        <v>1.00798413965288</v>
+      </c>
+      <c r="L24">
+        <v>0.9914701723518177</v>
+      </c>
+      <c r="M24">
+        <v>1.010704690663481</v>
+      </c>
+      <c r="N24">
+        <v>0.997168216897467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9914108329128866</v>
+      </c>
+      <c r="D25">
+        <v>1.013190605106646</v>
+      </c>
+      <c r="E25">
+        <v>1.000339794297952</v>
+      </c>
+      <c r="F25">
+        <v>1.017247208555306</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.044758711045639</v>
+      </c>
+      <c r="J25">
+        <v>1.016230755073883</v>
+      </c>
+      <c r="K25">
+        <v>1.025587547571787</v>
+      </c>
+      <c r="L25">
+        <v>1.012932837686718</v>
+      </c>
+      <c r="M25">
+        <v>1.029583556237696</v>
+      </c>
+      <c r="N25">
+        <v>1.017673919309385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008981841442631</v>
+        <v>1.070371838301993</v>
       </c>
       <c r="D2">
-        <v>1.027078151634521</v>
+        <v>1.068807906730887</v>
       </c>
       <c r="E2">
-        <v>1.01709797725572</v>
+        <v>1.074087081601978</v>
       </c>
       <c r="F2">
-        <v>1.032085411536757</v>
+        <v>1.078532240469478</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051519699177658</v>
+        <v>1.051147693843331</v>
       </c>
       <c r="J2">
-        <v>1.030897186268976</v>
+        <v>1.075301829498439</v>
       </c>
       <c r="K2">
-        <v>1.038172706614362</v>
+        <v>1.071512099279177</v>
       </c>
       <c r="L2">
-        <v>1.02832414039613</v>
+        <v>1.076777223258366</v>
       </c>
       <c r="M2">
-        <v>1.043115135363806</v>
+        <v>1.081210666265848</v>
       </c>
       <c r="N2">
-        <v>1.032361178519037</v>
+        <v>1.076828881435171</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020839231301163</v>
+        <v>1.072427629661114</v>
       </c>
       <c r="D3">
-        <v>1.036449544650463</v>
+        <v>1.070403482192971</v>
       </c>
       <c r="E3">
-        <v>1.028421598537927</v>
+        <v>1.07609627420989</v>
       </c>
       <c r="F3">
-        <v>1.042113139629208</v>
+        <v>1.08027992115699</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056040556893156</v>
+        <v>1.051771661125545</v>
       </c>
       <c r="J3">
-        <v>1.04077748070431</v>
+        <v>1.077009949197536</v>
       </c>
       <c r="K3">
-        <v>1.046636357671838</v>
+        <v>1.072921789672596</v>
       </c>
       <c r="L3">
-        <v>1.038703289781473</v>
+        <v>1.07860054855899</v>
       </c>
       <c r="M3">
-        <v>1.05223410415286</v>
+        <v>1.082773983907301</v>
       </c>
       <c r="N3">
-        <v>1.042255504105756</v>
+        <v>1.078539426860164</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028154729637459</v>
+        <v>1.073751960065182</v>
       </c>
       <c r="D4">
-        <v>1.042229609638678</v>
+        <v>1.071430334281427</v>
       </c>
       <c r="E4">
-        <v>1.035413623535659</v>
+        <v>1.077390822473071</v>
       </c>
       <c r="F4">
-        <v>1.048304720036717</v>
+        <v>1.081405474269382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058809893815259</v>
+        <v>1.052171205811199</v>
       </c>
       <c r="J4">
-        <v>1.046864660587998</v>
+        <v>1.078109118681496</v>
       </c>
       <c r="K4">
-        <v>1.051843736959568</v>
+        <v>1.07382788210049</v>
       </c>
       <c r="L4">
-        <v>1.045102629380454</v>
+        <v>1.079774431592579</v>
       </c>
       <c r="M4">
-        <v>1.057853113854996</v>
+        <v>1.083779787891898</v>
       </c>
       <c r="N4">
-        <v>1.048351328483088</v>
+        <v>1.079640157290868</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031152168634078</v>
+        <v>1.074307325745585</v>
       </c>
       <c r="D5">
-        <v>1.044597323374484</v>
+        <v>1.071860707818625</v>
       </c>
       <c r="E5">
-        <v>1.038279802157994</v>
+        <v>1.077933754843347</v>
       </c>
       <c r="F5">
-        <v>1.050842596509115</v>
+        <v>1.081877409704638</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059939754141706</v>
+        <v>1.052338179086276</v>
       </c>
       <c r="J5">
-        <v>1.049356674903519</v>
+        <v>1.078569775849787</v>
       </c>
       <c r="K5">
-        <v>1.053973848791512</v>
+        <v>1.074207372282963</v>
       </c>
       <c r="L5">
-        <v>1.047723589874652</v>
+        <v>1.080266539659569</v>
       </c>
       <c r="M5">
-        <v>1.060153599877667</v>
+        <v>1.084201270829418</v>
       </c>
       <c r="N5">
-        <v>1.050846881744775</v>
+        <v>1.080101468645176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031651075883279</v>
+        <v>1.074400493882425</v>
       </c>
       <c r="D6">
-        <v>1.044991375762882</v>
+        <v>1.071932892995021</v>
       </c>
       <c r="E6">
-        <v>1.03875693386525</v>
+        <v>1.078024840435209</v>
       </c>
       <c r="F6">
-        <v>1.051265061912159</v>
+        <v>1.081956577329541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060127525874377</v>
+        <v>1.052366156588952</v>
       </c>
       <c r="J6">
-        <v>1.049771328939996</v>
+        <v>1.078647038901219</v>
       </c>
       <c r="K6">
-        <v>1.054328182218143</v>
+        <v>1.074271007084214</v>
       </c>
       <c r="L6">
-        <v>1.048159767376591</v>
+        <v>1.080349085911577</v>
       </c>
       <c r="M6">
-        <v>1.060536390811805</v>
+        <v>1.084271960772041</v>
       </c>
       <c r="N6">
-        <v>1.051262124637546</v>
+        <v>1.080178841419003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028195078943137</v>
+        <v>1.07375938628096</v>
       </c>
       <c r="D7">
-        <v>1.042261484672632</v>
+        <v>1.07143609008924</v>
       </c>
       <c r="E7">
-        <v>1.035452200981923</v>
+        <v>1.077398082214183</v>
       </c>
       <c r="F7">
-        <v>1.048338879560921</v>
+        <v>1.081411785160482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05882512249601</v>
+        <v>1.052173440812196</v>
       </c>
       <c r="J7">
-        <v>1.046898214830688</v>
+        <v>1.07811527960323</v>
       </c>
       <c r="K7">
-        <v>1.051872425187595</v>
+        <v>1.073832958459797</v>
       </c>
       <c r="L7">
-        <v>1.045137915273866</v>
+        <v>1.079781012598852</v>
       </c>
       <c r="M7">
-        <v>1.057884088784324</v>
+        <v>1.083785425068092</v>
       </c>
       <c r="N7">
-        <v>1.048384930376651</v>
+        <v>1.079646326961818</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013067885323954</v>
+        <v>1.071067843651303</v>
       </c>
       <c r="D8">
-        <v>1.03030775146348</v>
+        <v>1.069348311100486</v>
       </c>
       <c r="E8">
-        <v>1.020998756338487</v>
+        <v>1.074767261050243</v>
       </c>
       <c r="F8">
-        <v>1.035539756616737</v>
+        <v>1.079123992546818</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053081764251093</v>
+        <v>1.051359443678974</v>
       </c>
       <c r="J8">
-        <v>1.034303689704966</v>
+        <v>1.075880375114769</v>
       </c>
       <c r="K8">
-        <v>1.041092257117558</v>
+        <v>1.07198978150862</v>
       </c>
       <c r="L8">
-        <v>1.03190160459993</v>
+        <v>1.077394669092008</v>
       </c>
       <c r="M8">
-        <v>1.046258912755913</v>
+        <v>1.081740205187956</v>
       </c>
       <c r="N8">
-        <v>1.035772519580639</v>
+        <v>1.077408248652636</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9832703261758902</v>
+        <v>1.06627839578289</v>
       </c>
       <c r="D9">
-        <v>1.006758595002685</v>
+        <v>1.065625478636546</v>
       </c>
       <c r="E9">
-        <v>0.9925848923568085</v>
+        <v>1.070087719576967</v>
       </c>
       <c r="F9">
-        <v>1.010382828011023</v>
+        <v>1.075050789085273</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041605531659518</v>
+        <v>1.049892376193196</v>
       </c>
       <c r="J9">
-        <v>1.009428006052891</v>
+        <v>1.071894293963722</v>
       </c>
       <c r="K9">
-        <v>1.019742962234933</v>
+        <v>1.06869434929565</v>
       </c>
       <c r="L9">
-        <v>1.005799431161712</v>
+        <v>1.073142966564688</v>
       </c>
       <c r="M9">
-        <v>1.023309667548183</v>
+        <v>1.078091028131786</v>
       </c>
       <c r="N9">
-        <v>1.010861509604496</v>
+        <v>1.073416506809144</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9605690014839294</v>
+        <v>1.063052137988969</v>
       </c>
       <c r="D10">
-        <v>0.9888366916852726</v>
+        <v>1.063112562418062</v>
       </c>
       <c r="E10">
-        <v>0.9709901373983451</v>
+        <v>1.066936787226883</v>
       </c>
       <c r="F10">
-        <v>0.9912792699882075</v>
+        <v>1.072305610148356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032757427469363</v>
+        <v>1.048891633047746</v>
       </c>
       <c r="J10">
-        <v>0.9904393804886306</v>
+        <v>1.069203027407591</v>
       </c>
       <c r="K10">
-        <v>1.003410471383509</v>
+        <v>1.066464007953935</v>
       </c>
       <c r="L10">
-        <v>0.9859037016361029</v>
+        <v>1.070275375572439</v>
       </c>
       <c r="M10">
-        <v>1.005807785534161</v>
+        <v>1.075626318126554</v>
       </c>
       <c r="N10">
-        <v>0.9918459180139093</v>
+        <v>1.070721418345811</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9498390915750566</v>
+        <v>1.061646795725028</v>
       </c>
       <c r="D11">
-        <v>0.9803768409980325</v>
+        <v>1.062016741853732</v>
       </c>
       <c r="E11">
-        <v>0.9607998128893299</v>
+        <v>1.06556457140065</v>
       </c>
       <c r="F11">
-        <v>0.9822722061703237</v>
+        <v>1.071109511996912</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028552853647192</v>
+        <v>1.04845275584257</v>
       </c>
       <c r="J11">
-        <v>0.9814584814738987</v>
+        <v>1.068029265797396</v>
       </c>
       <c r="K11">
-        <v>0.9956785585168227</v>
+        <v>1.065490002878363</v>
       </c>
       <c r="L11">
-        <v>0.9765008883137518</v>
+        <v>1.069025426618898</v>
       </c>
       <c r="M11">
-        <v>0.9975363696404725</v>
+        <v>1.074551159194673</v>
       </c>
       <c r="N11">
-        <v>0.9828522650924529</v>
+        <v>1.069545989859498</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9456917131679341</v>
+        <v>1.061123496083204</v>
       </c>
       <c r="D12">
-        <v>0.9771092948558144</v>
+        <v>1.061608517147413</v>
       </c>
       <c r="E12">
-        <v>0.9568639436775669</v>
+        <v>1.065053654957015</v>
       </c>
       <c r="F12">
-        <v>0.978794952943258</v>
+        <v>1.07066408231173</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026924605787484</v>
+        <v>1.048288889648975</v>
       </c>
       <c r="J12">
-        <v>0.9779866202479528</v>
+        <v>1.067591979806066</v>
       </c>
       <c r="K12">
-        <v>0.9926885892533965</v>
+        <v>1.065126946002531</v>
       </c>
       <c r="L12">
-        <v>0.9728670055979964</v>
+        <v>1.068559864228658</v>
       </c>
       <c r="M12">
-        <v>0.9943400051263311</v>
+        <v>1.074150577346193</v>
       </c>
       <c r="N12">
-        <v>0.9793754734253381</v>
+        <v>1.069108082871902</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9465891777311726</v>
+        <v>1.061235804762748</v>
       </c>
       <c r="D13">
-        <v>0.9778162478565939</v>
+        <v>1.061696136980427</v>
       </c>
       <c r="E13">
-        <v>0.9577154979492819</v>
+        <v>1.065163303811834</v>
       </c>
       <c r="F13">
-        <v>0.9795472020208605</v>
+        <v>1.070759680837144</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02727708012261</v>
+        <v>1.04832407808969</v>
       </c>
       <c r="J13">
-        <v>0.978737924010507</v>
+        <v>1.067685838436351</v>
       </c>
       <c r="K13">
-        <v>0.9933356522326759</v>
+        <v>1.065204880773007</v>
       </c>
       <c r="L13">
-        <v>0.9736533215129255</v>
+        <v>1.068659787225837</v>
       </c>
       <c r="M13">
-        <v>0.9950316317940899</v>
+        <v>1.074236559198048</v>
       </c>
       <c r="N13">
-        <v>0.9801278441254105</v>
+        <v>1.069202074792208</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.949499751463756</v>
+        <v>1.061603566212928</v>
       </c>
       <c r="D14">
-        <v>0.980109435906205</v>
+        <v>1.061983022283477</v>
       </c>
       <c r="E14">
-        <v>0.9604777161908211</v>
+        <v>1.065522363873548</v>
       </c>
       <c r="F14">
-        <v>0.9819876057454868</v>
+        <v>1.071072716191864</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02841968965191</v>
+        <v>1.048439227985833</v>
       </c>
       <c r="J14">
-        <v>0.9811744204948001</v>
+        <v>1.067993146285423</v>
       </c>
       <c r="K14">
-        <v>0.9954339430310497</v>
+        <v>1.065460018515785</v>
       </c>
       <c r="L14">
-        <v>0.9762035491524809</v>
+        <v>1.068986969310582</v>
       </c>
       <c r="M14">
-        <v>0.9972748228330535</v>
+        <v>1.074518072033672</v>
       </c>
       <c r="N14">
-        <v>0.9825678007141817</v>
+        <v>1.069509819053674</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9512706794559493</v>
+        <v>1.061829983695438</v>
       </c>
       <c r="D15">
-        <v>0.9815050551372078</v>
+        <v>1.062159623449442</v>
       </c>
       <c r="E15">
-        <v>0.9621587769537026</v>
+        <v>1.06574343061256</v>
       </c>
       <c r="F15">
-        <v>0.9834730363266401</v>
+        <v>1.071265434863611</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029114516130683</v>
+        <v>1.04851006289078</v>
       </c>
       <c r="J15">
-        <v>0.9826568424840203</v>
+        <v>1.068182315715255</v>
       </c>
       <c r="K15">
-        <v>0.9967104747317677</v>
+        <v>1.065617048423096</v>
       </c>
       <c r="L15">
-        <v>0.9777553093853932</v>
+        <v>1.069188386914426</v>
       </c>
       <c r="M15">
-        <v>0.9986398017223462</v>
+        <v>1.074691358833973</v>
       </c>
       <c r="N15">
-        <v>0.9840523279126628</v>
+        <v>1.069699257125795</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9612600495041599</v>
+        <v>1.063145226722965</v>
       </c>
       <c r="D16">
-        <v>0.9893818198493185</v>
+        <v>1.063185123435424</v>
       </c>
       <c r="E16">
-        <v>0.9716468053719217</v>
+        <v>1.06702768837866</v>
       </c>
       <c r="F16">
-        <v>0.9918598785145197</v>
+        <v>1.072384832315719</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033027785270956</v>
+        <v>1.048920641784984</v>
       </c>
       <c r="J16">
-        <v>0.9910176943378134</v>
+        <v>1.069280745795582</v>
       </c>
       <c r="K16">
-        <v>1.00390822206773</v>
+        <v>1.06652847319787</v>
       </c>
       <c r="L16">
-        <v>0.9865093296743207</v>
+        <v>1.070358153563054</v>
       </c>
       <c r="M16">
-        <v>1.006340562300776</v>
+        <v>1.075697503437981</v>
       </c>
       <c r="N16">
-        <v>0.9924250531350913</v>
+        <v>1.070799247102828</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9672686509088211</v>
+        <v>1.063967981232357</v>
       </c>
       <c r="D17">
-        <v>0.9941229426401275</v>
+        <v>1.063826307206335</v>
       </c>
       <c r="E17">
-        <v>0.9773583398298182</v>
+        <v>1.067831144558291</v>
       </c>
       <c r="F17">
-        <v>0.9969107544058489</v>
+        <v>1.073084993037173</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03537607512178</v>
+        <v>1.049176691688902</v>
       </c>
       <c r="J17">
-        <v>0.996045472442576</v>
+        <v>1.069967483231665</v>
       </c>
       <c r="K17">
-        <v>1.008234808674089</v>
+        <v>1.067097956703534</v>
       </c>
       <c r="L17">
-        <v>0.9917753578584568</v>
+        <v>1.071089681007281</v>
       </c>
       <c r="M17">
-        <v>1.010973166970978</v>
+        <v>1.076326489375617</v>
       </c>
       <c r="N17">
-        <v>0.9974599712614571</v>
+        <v>1.07148695978484</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9706886556215318</v>
+        <v>1.064447076850333</v>
       </c>
       <c r="D18">
-        <v>0.9968224728688952</v>
+        <v>1.064199556854231</v>
       </c>
       <c r="E18">
-        <v>0.9806107390498756</v>
+        <v>1.068299032864337</v>
       </c>
       <c r="F18">
-        <v>0.9997876171689903</v>
+        <v>1.073492671386086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036710609720951</v>
+        <v>1.049325506844281</v>
       </c>
       <c r="J18">
-        <v>0.9989066492409341</v>
+        <v>1.070367234874085</v>
       </c>
       <c r="K18">
-        <v>1.010696280913536</v>
+        <v>1.067429332472708</v>
       </c>
       <c r="L18">
-        <v>0.9947727655194413</v>
+        <v>1.071515573659798</v>
       </c>
       <c r="M18">
-        <v>1.01361001762449</v>
+        <v>1.076692603777425</v>
       </c>
       <c r="N18">
-        <v>1.00032521125905</v>
+        <v>1.071887279120444</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9718411083330351</v>
+        <v>1.064610300992031</v>
       </c>
       <c r="D19">
-        <v>0.9977322881112771</v>
+        <v>1.064326700371804</v>
       </c>
       <c r="E19">
-        <v>0.9817069528478455</v>
+        <v>1.068458443868445</v>
       </c>
       <c r="F19">
-        <v>1.000757360195112</v>
+        <v>1.073631559071851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037159953554114</v>
+        <v>1.049376158739619</v>
       </c>
       <c r="J19">
-        <v>0.9998706880896253</v>
+        <v>1.070503403332793</v>
       </c>
       <c r="K19">
-        <v>1.011525526066478</v>
+        <v>1.067542189160418</v>
       </c>
       <c r="L19">
-        <v>0.9957828154024648</v>
+        <v>1.071660658242297</v>
       </c>
       <c r="M19">
-        <v>1.014498560097239</v>
+        <v>1.076817310889079</v>
       </c>
       <c r="N19">
-        <v>1.001290619153484</v>
+        <v>1.072023640953983</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.966632914803074</v>
+        <v>1.063879790810325</v>
       </c>
       <c r="D20">
-        <v>0.9936212070449152</v>
+        <v>1.06375759121709</v>
       </c>
       <c r="E20">
-        <v>0.9767538773261335</v>
+        <v>1.067745019574184</v>
       </c>
       <c r="F20">
-        <v>0.9963761378347701</v>
+        <v>1.073009946448338</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03512783081386</v>
+        <v>1.049149275335871</v>
       </c>
       <c r="J20">
-        <v>0.9955135678307694</v>
+        <v>1.069893886893041</v>
       </c>
       <c r="K20">
-        <v>1.007777154910023</v>
+        <v>1.067036938876128</v>
       </c>
       <c r="L20">
-        <v>0.9912181801555773</v>
+        <v>1.071011277505088</v>
       </c>
       <c r="M20">
-        <v>1.010483009201812</v>
+        <v>1.076259084213939</v>
       </c>
       <c r="N20">
-        <v>0.9969273112840914</v>
+        <v>1.071413258930973</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9486473807066931</v>
+        <v>1.061495305634381</v>
       </c>
       <c r="D21">
-        <v>0.9794377961757679</v>
+        <v>1.061898574751617</v>
       </c>
       <c r="E21">
-        <v>0.9596687071362274</v>
+        <v>1.065416663452532</v>
       </c>
       <c r="F21">
-        <v>0.9812728032084882</v>
+        <v>1.070980566958617</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028085153951861</v>
+        <v>1.048405342724748</v>
       </c>
       <c r="J21">
-        <v>0.980460895597984</v>
+        <v>1.067902687899479</v>
       </c>
       <c r="K21">
-        <v>0.9948194856458072</v>
+        <v>1.065384922041996</v>
       </c>
       <c r="L21">
-        <v>0.9754566885319078</v>
+        <v>1.068890657834875</v>
       </c>
       <c r="M21">
-        <v>0.996617871268158</v>
+        <v>1.07443520743675</v>
       </c>
       <c r="N21">
-        <v>0.9818532625301696</v>
+        <v>1.069419232206447</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9363831750482229</v>
+        <v>1.05998858510881</v>
       </c>
       <c r="D22">
-        <v>0.9697809801408536</v>
+        <v>1.060722847949998</v>
       </c>
       <c r="E22">
-        <v>0.9480362482966098</v>
+        <v>1.063945689024777</v>
       </c>
       <c r="F22">
-        <v>0.9709994691981632</v>
+        <v>1.069697971744069</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02326479380707</v>
+        <v>1.047932691350431</v>
       </c>
       <c r="J22">
-        <v>0.9701937725114781</v>
+        <v>1.06664321168636</v>
       </c>
       <c r="K22">
-        <v>0.9859758298584514</v>
+        <v>1.06433888278511</v>
       </c>
       <c r="L22">
-        <v>0.9647125255828516</v>
+        <v>1.067549941902396</v>
       </c>
       <c r="M22">
-        <v>0.9871681871283673</v>
+        <v>1.073281390437941</v>
       </c>
       <c r="N22">
-        <v>0.9715715589512254</v>
+        <v>1.068157967392642</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9429864557628173</v>
+        <v>1.060788050032067</v>
       </c>
       <c r="D23">
-        <v>0.9749787236380946</v>
+        <v>1.061346786032599</v>
       </c>
       <c r="E23">
-        <v>0.9542975500170964</v>
+        <v>1.064726160429722</v>
       </c>
       <c r="F23">
-        <v>0.976528118593424</v>
+        <v>1.070378540038115</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025861707998601</v>
+        <v>1.048183723075929</v>
       </c>
       <c r="J23">
-        <v>0.9757218977849452</v>
+        <v>1.067311608764144</v>
       </c>
       <c r="K23">
-        <v>0.9907379645237986</v>
+        <v>1.064894114282961</v>
       </c>
       <c r="L23">
-        <v>0.9704969029863922</v>
+        <v>1.068261393639023</v>
       </c>
       <c r="M23">
-        <v>0.9922553775774819</v>
+        <v>1.07389373113416</v>
       </c>
       <c r="N23">
-        <v>0.9771075347966661</v>
+        <v>1.068827313670941</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9669204364455011</v>
+        <v>1.063919642746193</v>
       </c>
       <c r="D24">
-        <v>0.9938481219205052</v>
+        <v>1.063788643306417</v>
       </c>
       <c r="E24">
-        <v>0.977027250400432</v>
+        <v>1.067783938076018</v>
       </c>
       <c r="F24">
-        <v>0.9966179204533931</v>
+        <v>1.073043858975191</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035240109705364</v>
+        <v>1.049161665256487</v>
       </c>
       <c r="J24">
-        <v>0.9957541318156936</v>
+        <v>1.069927144414262</v>
       </c>
       <c r="K24">
-        <v>1.00798413965288</v>
+        <v>1.067064512659196</v>
       </c>
       <c r="L24">
-        <v>0.9914701723518177</v>
+        <v>1.07104670712787</v>
       </c>
       <c r="M24">
-        <v>1.010704690663481</v>
+        <v>1.076289544059914</v>
       </c>
       <c r="N24">
-        <v>0.997168216897467</v>
+        <v>1.071446563681689</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9914108329128866</v>
+        <v>1.067522305442571</v>
       </c>
       <c r="D25">
-        <v>1.013190605106646</v>
+        <v>1.066593276513492</v>
       </c>
       <c r="E25">
-        <v>1.000339794297952</v>
+        <v>1.071302861086399</v>
       </c>
       <c r="F25">
-        <v>1.017247208555306</v>
+        <v>1.07610892805995</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044758711045639</v>
+        <v>1.050275596042892</v>
       </c>
       <c r="J25">
-        <v>1.016230755073883</v>
+        <v>1.072930638201145</v>
       </c>
       <c r="K25">
-        <v>1.025587547571787</v>
+        <v>1.069552075263563</v>
       </c>
       <c r="L25">
-        <v>1.012932837686718</v>
+        <v>1.07424784155162</v>
       </c>
       <c r="M25">
-        <v>1.029583556237696</v>
+        <v>1.079039942711277</v>
       </c>
       <c r="N25">
-        <v>1.017673919309385</v>
+        <v>1.074454322774254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.070371838301993</v>
+        <v>1.00898184144263</v>
       </c>
       <c r="D2">
-        <v>1.068807906730887</v>
+        <v>1.02707815163452</v>
       </c>
       <c r="E2">
-        <v>1.074087081601978</v>
+        <v>1.017097977255719</v>
       </c>
       <c r="F2">
-        <v>1.078532240469478</v>
+        <v>1.032085411536757</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051147693843331</v>
+        <v>1.051519699177657</v>
       </c>
       <c r="J2">
-        <v>1.075301829498439</v>
+        <v>1.030897186268975</v>
       </c>
       <c r="K2">
-        <v>1.071512099279177</v>
+        <v>1.038172706614362</v>
       </c>
       <c r="L2">
-        <v>1.076777223258366</v>
+        <v>1.02832414039613</v>
       </c>
       <c r="M2">
-        <v>1.081210666265848</v>
+        <v>1.043115135363806</v>
       </c>
       <c r="N2">
-        <v>1.076828881435171</v>
+        <v>1.032361178519037</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.072427629661114</v>
+        <v>1.020839231301165</v>
       </c>
       <c r="D3">
-        <v>1.070403482192971</v>
+        <v>1.036449544650465</v>
       </c>
       <c r="E3">
-        <v>1.07609627420989</v>
+        <v>1.028421598537929</v>
       </c>
       <c r="F3">
-        <v>1.08027992115699</v>
+        <v>1.04211313962921</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051771661125545</v>
+        <v>1.056040556893157</v>
       </c>
       <c r="J3">
-        <v>1.077009949197536</v>
+        <v>1.040777480704312</v>
       </c>
       <c r="K3">
-        <v>1.072921789672596</v>
+        <v>1.04663635767184</v>
       </c>
       <c r="L3">
-        <v>1.07860054855899</v>
+        <v>1.038703289781475</v>
       </c>
       <c r="M3">
-        <v>1.082773983907301</v>
+        <v>1.052234104152862</v>
       </c>
       <c r="N3">
-        <v>1.078539426860164</v>
+        <v>1.042255504105758</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.073751960065182</v>
+        <v>1.028154729637461</v>
       </c>
       <c r="D4">
-        <v>1.071430334281427</v>
+        <v>1.04222960963868</v>
       </c>
       <c r="E4">
-        <v>1.077390822473071</v>
+        <v>1.035413623535661</v>
       </c>
       <c r="F4">
-        <v>1.081405474269382</v>
+        <v>1.048304720036719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052171205811199</v>
+        <v>1.05880989381526</v>
       </c>
       <c r="J4">
-        <v>1.078109118681496</v>
+        <v>1.046864660588001</v>
       </c>
       <c r="K4">
-        <v>1.07382788210049</v>
+        <v>1.05184373695957</v>
       </c>
       <c r="L4">
-        <v>1.079774431592579</v>
+        <v>1.045102629380456</v>
       </c>
       <c r="M4">
-        <v>1.083779787891898</v>
+        <v>1.057853113854999</v>
       </c>
       <c r="N4">
-        <v>1.079640157290868</v>
+        <v>1.048351328483091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.074307325745585</v>
+        <v>1.031152168634077</v>
       </c>
       <c r="D5">
-        <v>1.071860707818625</v>
+        <v>1.044597323374484</v>
       </c>
       <c r="E5">
-        <v>1.077933754843347</v>
+        <v>1.038279802157992</v>
       </c>
       <c r="F5">
-        <v>1.081877409704638</v>
+        <v>1.050842596509114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052338179086276</v>
+        <v>1.059939754141706</v>
       </c>
       <c r="J5">
-        <v>1.078569775849787</v>
+        <v>1.049356674903518</v>
       </c>
       <c r="K5">
-        <v>1.074207372282963</v>
+        <v>1.053973848791512</v>
       </c>
       <c r="L5">
-        <v>1.080266539659569</v>
+        <v>1.047723589874651</v>
       </c>
       <c r="M5">
-        <v>1.084201270829418</v>
+        <v>1.060153599877666</v>
       </c>
       <c r="N5">
-        <v>1.080101468645176</v>
+        <v>1.050846881744774</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.074400493882425</v>
+        <v>1.031651075883279</v>
       </c>
       <c r="D6">
-        <v>1.071932892995021</v>
+        <v>1.044991375762882</v>
       </c>
       <c r="E6">
-        <v>1.078024840435209</v>
+        <v>1.03875693386525</v>
       </c>
       <c r="F6">
-        <v>1.081956577329541</v>
+        <v>1.051265061912159</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052366156588952</v>
+        <v>1.060127525874377</v>
       </c>
       <c r="J6">
-        <v>1.078647038901219</v>
+        <v>1.049771328939996</v>
       </c>
       <c r="K6">
-        <v>1.074271007084214</v>
+        <v>1.054328182218143</v>
       </c>
       <c r="L6">
-        <v>1.080349085911577</v>
+        <v>1.048159767376591</v>
       </c>
       <c r="M6">
-        <v>1.084271960772041</v>
+        <v>1.060536390811804</v>
       </c>
       <c r="N6">
-        <v>1.080178841419003</v>
+        <v>1.051262124637546</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07375938628096</v>
+        <v>1.028195078943136</v>
       </c>
       <c r="D7">
-        <v>1.07143609008924</v>
+        <v>1.042261484672632</v>
       </c>
       <c r="E7">
-        <v>1.077398082214183</v>
+        <v>1.035452200981922</v>
       </c>
       <c r="F7">
-        <v>1.081411785160482</v>
+        <v>1.048338879560921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052173440812196</v>
+        <v>1.05882512249601</v>
       </c>
       <c r="J7">
-        <v>1.07811527960323</v>
+        <v>1.046898214830687</v>
       </c>
       <c r="K7">
-        <v>1.073832958459797</v>
+        <v>1.051872425187595</v>
       </c>
       <c r="L7">
-        <v>1.079781012598852</v>
+        <v>1.045137915273866</v>
       </c>
       <c r="M7">
-        <v>1.083785425068092</v>
+        <v>1.057884088784323</v>
       </c>
       <c r="N7">
-        <v>1.079646326961818</v>
+        <v>1.04838493037665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071067843651303</v>
+        <v>1.013067885323957</v>
       </c>
       <c r="D8">
-        <v>1.069348311100486</v>
+        <v>1.030307751463483</v>
       </c>
       <c r="E8">
-        <v>1.074767261050243</v>
+        <v>1.02099875633849</v>
       </c>
       <c r="F8">
-        <v>1.079123992546818</v>
+        <v>1.03553975661674</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051359443678974</v>
+        <v>1.053081764251095</v>
       </c>
       <c r="J8">
-        <v>1.075880375114769</v>
+        <v>1.03430368970497</v>
       </c>
       <c r="K8">
-        <v>1.07198978150862</v>
+        <v>1.041092257117561</v>
       </c>
       <c r="L8">
-        <v>1.077394669092008</v>
+        <v>1.031901604599934</v>
       </c>
       <c r="M8">
-        <v>1.081740205187956</v>
+        <v>1.046258912755916</v>
       </c>
       <c r="N8">
-        <v>1.077408248652636</v>
+        <v>1.035772519580642</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06627839578289</v>
+        <v>0.9832703261758876</v>
       </c>
       <c r="D9">
-        <v>1.065625478636546</v>
+        <v>1.006758595002683</v>
       </c>
       <c r="E9">
-        <v>1.070087719576967</v>
+        <v>0.9925848923568058</v>
       </c>
       <c r="F9">
-        <v>1.075050789085273</v>
+        <v>1.010382828011021</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049892376193196</v>
+        <v>1.041605531659517</v>
       </c>
       <c r="J9">
-        <v>1.071894293963722</v>
+        <v>1.009428006052888</v>
       </c>
       <c r="K9">
-        <v>1.06869434929565</v>
+        <v>1.019742962234931</v>
       </c>
       <c r="L9">
-        <v>1.073142966564688</v>
+        <v>1.005799431161709</v>
       </c>
       <c r="M9">
-        <v>1.078091028131786</v>
+        <v>1.023309667548181</v>
       </c>
       <c r="N9">
-        <v>1.073416506809144</v>
+        <v>1.010861509604494</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.063052137988969</v>
+        <v>0.9605690014839281</v>
       </c>
       <c r="D10">
-        <v>1.063112562418062</v>
+        <v>0.9888366916852717</v>
       </c>
       <c r="E10">
-        <v>1.066936787226883</v>
+        <v>0.9709901373983443</v>
       </c>
       <c r="F10">
-        <v>1.072305610148356</v>
+        <v>0.9912792699882065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048891633047746</v>
+        <v>1.032757427469362</v>
       </c>
       <c r="J10">
-        <v>1.069203027407591</v>
+        <v>0.9904393804886296</v>
       </c>
       <c r="K10">
-        <v>1.066464007953935</v>
+        <v>1.003410471383508</v>
       </c>
       <c r="L10">
-        <v>1.070275375572439</v>
+        <v>0.9859037016361019</v>
       </c>
       <c r="M10">
-        <v>1.075626318126554</v>
+        <v>1.00580778553416</v>
       </c>
       <c r="N10">
-        <v>1.070721418345811</v>
+        <v>0.9918459180139083</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061646795725028</v>
+        <v>0.9498390915750593</v>
       </c>
       <c r="D11">
-        <v>1.062016741853732</v>
+        <v>0.9803768409980346</v>
       </c>
       <c r="E11">
-        <v>1.06556457140065</v>
+        <v>0.9607998128893326</v>
       </c>
       <c r="F11">
-        <v>1.071109511996912</v>
+        <v>0.982272206170326</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04845275584257</v>
+        <v>1.028552853647194</v>
       </c>
       <c r="J11">
-        <v>1.068029265797396</v>
+        <v>0.9814584814739011</v>
       </c>
       <c r="K11">
-        <v>1.065490002878363</v>
+        <v>0.9956785585168251</v>
       </c>
       <c r="L11">
-        <v>1.069025426618898</v>
+        <v>0.9765008883137543</v>
       </c>
       <c r="M11">
-        <v>1.074551159194673</v>
+        <v>0.9975363696404748</v>
       </c>
       <c r="N11">
-        <v>1.069545989859498</v>
+        <v>0.982852265092455</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061123496083204</v>
+        <v>0.9456917131679351</v>
       </c>
       <c r="D12">
-        <v>1.061608517147413</v>
+        <v>0.9771092948558149</v>
       </c>
       <c r="E12">
-        <v>1.065053654957015</v>
+        <v>0.9568639436775679</v>
       </c>
       <c r="F12">
-        <v>1.07066408231173</v>
+        <v>0.9787949529432587</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048288889648975</v>
+        <v>1.026924605787485</v>
       </c>
       <c r="J12">
-        <v>1.067591979806066</v>
+        <v>0.9779866202479538</v>
       </c>
       <c r="K12">
-        <v>1.065126946002531</v>
+        <v>0.992688589253397</v>
       </c>
       <c r="L12">
-        <v>1.068559864228658</v>
+        <v>0.9728670055979973</v>
       </c>
       <c r="M12">
-        <v>1.074150577346193</v>
+        <v>0.9943400051263319</v>
       </c>
       <c r="N12">
-        <v>1.069108082871902</v>
+        <v>0.979375473425339</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061235804762748</v>
+        <v>0.9465891777311706</v>
       </c>
       <c r="D13">
-        <v>1.061696136980427</v>
+        <v>0.9778162478565925</v>
       </c>
       <c r="E13">
-        <v>1.065163303811834</v>
+        <v>0.9577154979492797</v>
       </c>
       <c r="F13">
-        <v>1.070759680837144</v>
+        <v>0.979547202020859</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04832407808969</v>
+        <v>1.02727708012261</v>
       </c>
       <c r="J13">
-        <v>1.067685838436351</v>
+        <v>0.9787379240105049</v>
       </c>
       <c r="K13">
-        <v>1.065204880773007</v>
+        <v>0.9933356522326745</v>
       </c>
       <c r="L13">
-        <v>1.068659787225837</v>
+        <v>0.9736533215129236</v>
       </c>
       <c r="M13">
-        <v>1.074236559198048</v>
+        <v>0.9950316317940885</v>
       </c>
       <c r="N13">
-        <v>1.069202074792208</v>
+        <v>0.9801278441254085</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061603566212928</v>
+        <v>0.9494997514637562</v>
       </c>
       <c r="D14">
-        <v>1.061983022283477</v>
+        <v>0.980109435906205</v>
       </c>
       <c r="E14">
-        <v>1.065522363873548</v>
+        <v>0.9604777161908211</v>
       </c>
       <c r="F14">
-        <v>1.071072716191864</v>
+        <v>0.9819876057454867</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048439227985833</v>
+        <v>1.02841968965191</v>
       </c>
       <c r="J14">
-        <v>1.067993146285423</v>
+        <v>0.9811744204948001</v>
       </c>
       <c r="K14">
-        <v>1.065460018515785</v>
+        <v>0.9954339430310498</v>
       </c>
       <c r="L14">
-        <v>1.068986969310582</v>
+        <v>0.9762035491524808</v>
       </c>
       <c r="M14">
-        <v>1.074518072033672</v>
+        <v>0.9972748228330534</v>
       </c>
       <c r="N14">
-        <v>1.069509819053674</v>
+        <v>0.9825678007141817</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061829983695438</v>
+        <v>0.9512706794559476</v>
       </c>
       <c r="D15">
-        <v>1.062159623449442</v>
+        <v>0.9815050551372062</v>
       </c>
       <c r="E15">
-        <v>1.06574343061256</v>
+        <v>0.9621587769537008</v>
       </c>
       <c r="F15">
-        <v>1.071265434863611</v>
+        <v>0.9834730363266385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04851006289078</v>
+        <v>1.029114516130682</v>
       </c>
       <c r="J15">
-        <v>1.068182315715255</v>
+        <v>0.9826568424840186</v>
       </c>
       <c r="K15">
-        <v>1.065617048423096</v>
+        <v>0.9967104747317661</v>
       </c>
       <c r="L15">
-        <v>1.069188386914426</v>
+        <v>0.9777553093853916</v>
       </c>
       <c r="M15">
-        <v>1.074691358833973</v>
+        <v>0.9986398017223448</v>
       </c>
       <c r="N15">
-        <v>1.069699257125795</v>
+        <v>0.9840523279126611</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.063145226722965</v>
+        <v>0.9612600495041574</v>
       </c>
       <c r="D16">
-        <v>1.063185123435424</v>
+        <v>0.9893818198493171</v>
       </c>
       <c r="E16">
-        <v>1.06702768837866</v>
+        <v>0.9716468053719191</v>
       </c>
       <c r="F16">
-        <v>1.072384832315719</v>
+        <v>0.9918598785145181</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048920641784984</v>
+        <v>1.033027785270955</v>
       </c>
       <c r="J16">
-        <v>1.069280745795582</v>
+        <v>0.9910176943378112</v>
       </c>
       <c r="K16">
-        <v>1.06652847319787</v>
+        <v>1.003908222067728</v>
       </c>
       <c r="L16">
-        <v>1.070358153563054</v>
+        <v>0.9865093296743181</v>
       </c>
       <c r="M16">
-        <v>1.075697503437981</v>
+        <v>1.006340562300774</v>
       </c>
       <c r="N16">
-        <v>1.070799247102828</v>
+        <v>0.9924250531350891</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.063967981232357</v>
+        <v>0.9672686509088201</v>
       </c>
       <c r="D17">
-        <v>1.063826307206335</v>
+        <v>0.9941229426401264</v>
       </c>
       <c r="E17">
-        <v>1.067831144558291</v>
+        <v>0.9773583398298171</v>
       </c>
       <c r="F17">
-        <v>1.073084993037173</v>
+        <v>0.9969107544058475</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049176691688902</v>
+        <v>1.035376075121779</v>
       </c>
       <c r="J17">
-        <v>1.069967483231665</v>
+        <v>0.996045472442575</v>
       </c>
       <c r="K17">
-        <v>1.067097956703534</v>
+        <v>1.008234808674088</v>
       </c>
       <c r="L17">
-        <v>1.071089681007281</v>
+        <v>0.9917753578584557</v>
       </c>
       <c r="M17">
-        <v>1.076326489375617</v>
+        <v>1.010973166970977</v>
       </c>
       <c r="N17">
-        <v>1.07148695978484</v>
+        <v>0.997459971261456</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.064447076850333</v>
+        <v>0.9706886556215334</v>
       </c>
       <c r="D18">
-        <v>1.064199556854231</v>
+        <v>0.9968224728688965</v>
       </c>
       <c r="E18">
-        <v>1.068299032864337</v>
+        <v>0.9806107390498772</v>
       </c>
       <c r="F18">
-        <v>1.073492671386086</v>
+        <v>0.9997876171689917</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049325506844281</v>
+        <v>1.036710609720951</v>
       </c>
       <c r="J18">
-        <v>1.070367234874085</v>
+        <v>0.9989066492409356</v>
       </c>
       <c r="K18">
-        <v>1.067429332472708</v>
+        <v>1.010696280913537</v>
       </c>
       <c r="L18">
-        <v>1.071515573659798</v>
+        <v>0.9947727655194427</v>
       </c>
       <c r="M18">
-        <v>1.076692603777425</v>
+        <v>1.013610017624491</v>
       </c>
       <c r="N18">
-        <v>1.071887279120444</v>
+        <v>1.000325211259052</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.064610300992031</v>
+        <v>0.9718411083330369</v>
       </c>
       <c r="D19">
-        <v>1.064326700371804</v>
+        <v>0.997732288111279</v>
       </c>
       <c r="E19">
-        <v>1.068458443868445</v>
+        <v>0.9817069528478476</v>
       </c>
       <c r="F19">
-        <v>1.073631559071851</v>
+        <v>1.000757360195114</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049376158739619</v>
+        <v>1.037159953554115</v>
       </c>
       <c r="J19">
-        <v>1.070503403332793</v>
+        <v>0.9998706880896275</v>
       </c>
       <c r="K19">
-        <v>1.067542189160418</v>
+        <v>1.01152552606648</v>
       </c>
       <c r="L19">
-        <v>1.071660658242297</v>
+        <v>0.9957828154024669</v>
       </c>
       <c r="M19">
-        <v>1.076817310889079</v>
+        <v>1.01449856009724</v>
       </c>
       <c r="N19">
-        <v>1.072023640953983</v>
+        <v>1.001290619153486</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.063879790810325</v>
+        <v>0.9666329148030708</v>
       </c>
       <c r="D20">
-        <v>1.06375759121709</v>
+        <v>0.9936212070449127</v>
       </c>
       <c r="E20">
-        <v>1.067745019574184</v>
+        <v>0.9767538773261302</v>
       </c>
       <c r="F20">
-        <v>1.073009946448338</v>
+        <v>0.9963761378347674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049149275335871</v>
+        <v>1.035127830813858</v>
       </c>
       <c r="J20">
-        <v>1.069893886893041</v>
+        <v>0.9955135678307665</v>
       </c>
       <c r="K20">
-        <v>1.067036938876128</v>
+        <v>1.007777154910021</v>
       </c>
       <c r="L20">
-        <v>1.071011277505088</v>
+        <v>0.9912181801555741</v>
       </c>
       <c r="M20">
-        <v>1.076259084213939</v>
+        <v>1.010483009201809</v>
       </c>
       <c r="N20">
-        <v>1.071413258930973</v>
+        <v>0.9969273112840884</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061495305634381</v>
+        <v>0.9486473807066906</v>
       </c>
       <c r="D21">
-        <v>1.061898574751617</v>
+        <v>0.9794377961757653</v>
       </c>
       <c r="E21">
-        <v>1.065416663452532</v>
+        <v>0.9596687071362249</v>
       </c>
       <c r="F21">
-        <v>1.070980566958617</v>
+        <v>0.9812728032084853</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048405342724748</v>
+        <v>1.028085153951859</v>
       </c>
       <c r="J21">
-        <v>1.067902687899479</v>
+        <v>0.9804608955979814</v>
       </c>
       <c r="K21">
-        <v>1.065384922041996</v>
+        <v>0.994819485645805</v>
       </c>
       <c r="L21">
-        <v>1.068890657834875</v>
+        <v>0.9754566885319051</v>
       </c>
       <c r="M21">
-        <v>1.07443520743675</v>
+        <v>0.9966178712681556</v>
       </c>
       <c r="N21">
-        <v>1.069419232206447</v>
+        <v>0.981853262530167</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05998858510881</v>
+        <v>0.9363831750482208</v>
       </c>
       <c r="D22">
-        <v>1.060722847949998</v>
+        <v>0.9697809801408522</v>
       </c>
       <c r="E22">
-        <v>1.063945689024777</v>
+        <v>0.9480362482966082</v>
       </c>
       <c r="F22">
-        <v>1.069697971744069</v>
+        <v>0.9709994691981622</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047932691350431</v>
+        <v>1.02326479380707</v>
       </c>
       <c r="J22">
-        <v>1.06664321168636</v>
+        <v>0.9701937725114764</v>
       </c>
       <c r="K22">
-        <v>1.06433888278511</v>
+        <v>0.9859758298584501</v>
       </c>
       <c r="L22">
-        <v>1.067549941902396</v>
+        <v>0.9647125255828499</v>
       </c>
       <c r="M22">
-        <v>1.073281390437941</v>
+        <v>0.9871681871283662</v>
       </c>
       <c r="N22">
-        <v>1.068157967392642</v>
+        <v>0.9715715589512238</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060788050032067</v>
+        <v>0.9429864557628225</v>
       </c>
       <c r="D23">
-        <v>1.061346786032599</v>
+        <v>0.9749787236380991</v>
       </c>
       <c r="E23">
-        <v>1.064726160429722</v>
+        <v>0.9542975500171016</v>
       </c>
       <c r="F23">
-        <v>1.070378540038115</v>
+        <v>0.9765281185934284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048183723075929</v>
+        <v>1.025861707998604</v>
       </c>
       <c r="J23">
-        <v>1.067311608764144</v>
+        <v>0.9757218977849501</v>
       </c>
       <c r="K23">
-        <v>1.064894114282961</v>
+        <v>0.9907379645238028</v>
       </c>
       <c r="L23">
-        <v>1.068261393639023</v>
+        <v>0.9704969029863972</v>
       </c>
       <c r="M23">
-        <v>1.07389373113416</v>
+        <v>0.9922553775774863</v>
       </c>
       <c r="N23">
-        <v>1.068827313670941</v>
+        <v>0.9771075347966708</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.063919642746193</v>
+        <v>0.9669204364455023</v>
       </c>
       <c r="D24">
-        <v>1.063788643306417</v>
+        <v>0.9938481219205063</v>
       </c>
       <c r="E24">
-        <v>1.067783938076018</v>
+        <v>0.9770272504004334</v>
       </c>
       <c r="F24">
-        <v>1.073043858975191</v>
+        <v>0.9966179204533944</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049161665256487</v>
+        <v>1.035240109705365</v>
       </c>
       <c r="J24">
-        <v>1.069927144414262</v>
+        <v>0.9957541318156948</v>
       </c>
       <c r="K24">
-        <v>1.067064512659196</v>
+        <v>1.007984139652881</v>
       </c>
       <c r="L24">
-        <v>1.07104670712787</v>
+        <v>0.991470172351819</v>
       </c>
       <c r="M24">
-        <v>1.076289544059914</v>
+        <v>1.010704690663482</v>
       </c>
       <c r="N24">
-        <v>1.071446563681689</v>
+        <v>0.9971682168974684</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067522305442571</v>
+        <v>0.991410832912888</v>
       </c>
       <c r="D25">
-        <v>1.066593276513492</v>
+        <v>1.013190605106647</v>
       </c>
       <c r="E25">
-        <v>1.071302861086399</v>
+        <v>1.000339794297953</v>
       </c>
       <c r="F25">
-        <v>1.07610892805995</v>
+        <v>1.017247208555308</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050275596042892</v>
+        <v>1.04475871104564</v>
       </c>
       <c r="J25">
-        <v>1.072930638201145</v>
+        <v>1.016230755073885</v>
       </c>
       <c r="K25">
-        <v>1.069552075263563</v>
+        <v>1.025587547571788</v>
       </c>
       <c r="L25">
-        <v>1.07424784155162</v>
+        <v>1.012932837686719</v>
       </c>
       <c r="M25">
-        <v>1.079039942711277</v>
+        <v>1.029583556237698</v>
       </c>
       <c r="N25">
-        <v>1.074454322774254</v>
+        <v>1.017673919309386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00898184144263</v>
+        <v>1.031518083601794</v>
       </c>
       <c r="D2">
-        <v>1.02707815163452</v>
+        <v>1.044008795007886</v>
       </c>
       <c r="E2">
-        <v>1.017097977255719</v>
+        <v>1.047653148266842</v>
       </c>
       <c r="F2">
-        <v>1.032085411536757</v>
+        <v>1.051301182680853</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051519699177657</v>
+        <v>1.062316206711361</v>
       </c>
       <c r="J2">
-        <v>1.030897186268975</v>
+        <v>1.052795293228704</v>
       </c>
       <c r="K2">
-        <v>1.038172706614362</v>
+        <v>1.054887263317522</v>
       </c>
       <c r="L2">
-        <v>1.02832414039613</v>
+        <v>1.058486241355628</v>
       </c>
       <c r="M2">
-        <v>1.043115135363806</v>
+        <v>1.062089246723662</v>
       </c>
       <c r="N2">
-        <v>1.032361178519037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.0203916803852</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.057711663853628</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.049880229138331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020839231301165</v>
+        <v>1.035811695643276</v>
       </c>
       <c r="D3">
-        <v>1.036449544650465</v>
+        <v>1.046957297668003</v>
       </c>
       <c r="E3">
-        <v>1.028421598537929</v>
+        <v>1.051332841639051</v>
       </c>
       <c r="F3">
-        <v>1.04211313962921</v>
+        <v>1.054641758829213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056040556893157</v>
+        <v>1.06374266717552</v>
       </c>
       <c r="J3">
-        <v>1.040777480704312</v>
+        <v>1.05537152305944</v>
       </c>
       <c r="K3">
-        <v>1.04663635767184</v>
+        <v>1.057022638527223</v>
       </c>
       <c r="L3">
-        <v>1.038703289781475</v>
+        <v>1.061348482830064</v>
       </c>
       <c r="M3">
-        <v>1.052234104152862</v>
+        <v>1.064620152881088</v>
       </c>
       <c r="N3">
-        <v>1.042255504105758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.021351950801324</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.059714657406002</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051387457253686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028154729637461</v>
+        <v>1.038536636219048</v>
       </c>
       <c r="D4">
-        <v>1.04222960963868</v>
+        <v>1.048831898405002</v>
       </c>
       <c r="E4">
-        <v>1.035413623535661</v>
+        <v>1.053673634768469</v>
       </c>
       <c r="F4">
-        <v>1.048304720036719</v>
+        <v>1.05676895999173</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05880989381526</v>
+        <v>1.064638626636979</v>
       </c>
       <c r="J4">
-        <v>1.046864660588001</v>
+        <v>1.0570034253328</v>
       </c>
       <c r="K4">
-        <v>1.05184373695957</v>
+        <v>1.058374632082091</v>
       </c>
       <c r="L4">
-        <v>1.045102629380456</v>
+        <v>1.063164708493515</v>
       </c>
       <c r="M4">
-        <v>1.057853113854999</v>
+        <v>1.06622731082118</v>
       </c>
       <c r="N4">
-        <v>1.048351328483091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.021959598661343</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.060986581358006</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.052344285305992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031152168634077</v>
+        <v>1.03967540955251</v>
       </c>
       <c r="D5">
-        <v>1.044597323374484</v>
+        <v>1.049618494449339</v>
       </c>
       <c r="E5">
-        <v>1.038279802157992</v>
+        <v>1.054653413521802</v>
       </c>
       <c r="F5">
-        <v>1.050842596509114</v>
+        <v>1.057659168274043</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059939754141706</v>
+        <v>1.065012703316074</v>
       </c>
       <c r="J5">
-        <v>1.049356674903518</v>
+        <v>1.057686739115869</v>
       </c>
       <c r="K5">
-        <v>1.053973848791512</v>
+        <v>1.058942265385207</v>
       </c>
       <c r="L5">
-        <v>1.047723589874651</v>
+        <v>1.063924901029973</v>
       </c>
       <c r="M5">
-        <v>1.060153599877666</v>
+        <v>1.066899732845174</v>
       </c>
       <c r="N5">
-        <v>1.050846881744774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.022215637808417</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.061518743544276</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.052752687037811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031651075883279</v>
+        <v>1.039872668030553</v>
       </c>
       <c r="D6">
-        <v>1.044991375762882</v>
+        <v>1.049757731129091</v>
       </c>
       <c r="E6">
-        <v>1.03875693386525</v>
+        <v>1.054823517764806</v>
       </c>
       <c r="F6">
-        <v>1.051265061912159</v>
+        <v>1.057812934627394</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060127525874377</v>
+        <v>1.065079713073034</v>
       </c>
       <c r="J6">
-        <v>1.049771328939996</v>
+        <v>1.057807613604452</v>
       </c>
       <c r="K6">
-        <v>1.054328182218143</v>
+        <v>1.059044704606564</v>
       </c>
       <c r="L6">
-        <v>1.048159767376591</v>
+        <v>1.064058129780636</v>
       </c>
       <c r="M6">
-        <v>1.060536390811804</v>
+        <v>1.067016933896392</v>
       </c>
       <c r="N6">
-        <v>1.051262124637546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.022263063465828</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.061611497708097</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.052833714333343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028195078943136</v>
+        <v>1.038570211768076</v>
       </c>
       <c r="D7">
-        <v>1.042261484672632</v>
+        <v>1.048862971376131</v>
       </c>
       <c r="E7">
-        <v>1.035452200981922</v>
+        <v>1.053703357257085</v>
       </c>
       <c r="F7">
-        <v>1.048338879560921</v>
+        <v>1.056793754833109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05882512249601</v>
+        <v>1.06465598070287</v>
       </c>
       <c r="J7">
-        <v>1.046898214830687</v>
+        <v>1.057030475844792</v>
       </c>
       <c r="K7">
-        <v>1.051872425187595</v>
+        <v>1.058402555893467</v>
       </c>
       <c r="L7">
-        <v>1.045137915273866</v>
+        <v>1.063191317011749</v>
       </c>
       <c r="M7">
-        <v>1.057884088784323</v>
+        <v>1.066249056671657</v>
       </c>
       <c r="N7">
-        <v>1.04838493037665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.021975595033217</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.061003791268979</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.052383805600932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013067885323957</v>
+        <v>1.033003808199863</v>
       </c>
       <c r="D8">
-        <v>1.030307751463483</v>
+        <v>1.045038216353132</v>
       </c>
       <c r="E8">
-        <v>1.02099875633849</v>
+        <v>1.048926392091295</v>
       </c>
       <c r="F8">
-        <v>1.03553975661674</v>
+        <v>1.052453830602337</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053081764251095</v>
+        <v>1.062819575424341</v>
       </c>
       <c r="J8">
-        <v>1.03430368970497</v>
+        <v>1.053696112804017</v>
       </c>
       <c r="K8">
-        <v>1.041092257117561</v>
+        <v>1.055640811518047</v>
       </c>
       <c r="L8">
-        <v>1.031901604599934</v>
+        <v>1.059482029072796</v>
       </c>
       <c r="M8">
-        <v>1.046258912755916</v>
+        <v>1.062967238285562</v>
       </c>
       <c r="N8">
-        <v>1.035772519580642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.020735362250953</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.058406518906745</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.050435588398222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9832703261758876</v>
+        <v>1.022736836513918</v>
       </c>
       <c r="D9">
-        <v>1.006758595002683</v>
+        <v>1.037999360964479</v>
       </c>
       <c r="E9">
-        <v>0.9925848923568058</v>
+        <v>1.040159241901667</v>
       </c>
       <c r="F9">
-        <v>1.010382828011021</v>
+        <v>1.044509762555518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041605531659517</v>
+        <v>1.059349585603201</v>
       </c>
       <c r="J9">
-        <v>1.009428006052888</v>
+        <v>1.047511478648717</v>
       </c>
       <c r="K9">
-        <v>1.019742962234931</v>
+        <v>1.050504605851328</v>
       </c>
       <c r="L9">
-        <v>1.005799431161709</v>
+        <v>1.052632712492685</v>
       </c>
       <c r="M9">
-        <v>1.023309667548181</v>
+        <v>1.056919737892542</v>
       </c>
       <c r="N9">
-        <v>1.010861509604494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.018420222319763</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.053620427966517</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046800914511728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9605690014839281</v>
+        <v>1.015701125455375</v>
       </c>
       <c r="D10">
-        <v>0.9888366916852717</v>
+        <v>1.033214240672188</v>
       </c>
       <c r="E10">
-        <v>0.9709901373983443</v>
+        <v>1.034223242419465</v>
       </c>
       <c r="F10">
-        <v>0.9912792699882065</v>
+        <v>1.039184578711382</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032757427469362</v>
+        <v>1.056957727056828</v>
       </c>
       <c r="J10">
-        <v>0.9904393804886296</v>
+        <v>1.043305349831231</v>
       </c>
       <c r="K10">
-        <v>1.003410471383508</v>
+        <v>1.047008625019385</v>
       </c>
       <c r="L10">
-        <v>0.9859037016361019</v>
+        <v>1.048000906902683</v>
       </c>
       <c r="M10">
-        <v>1.00580778553416</v>
+        <v>1.052880637502929</v>
       </c>
       <c r="N10">
-        <v>0.9918459180139083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016874484090363</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.050474501245859</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044345691098597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9498390915750593</v>
+        <v>1.013570828662586</v>
       </c>
       <c r="D11">
-        <v>0.9803768409980346</v>
+        <v>1.031893901576019</v>
       </c>
       <c r="E11">
-        <v>0.9607998128893326</v>
+        <v>1.032750415992461</v>
       </c>
       <c r="F11">
-        <v>0.982272206170326</v>
+        <v>1.038203057774103</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028552853647194</v>
+        <v>1.056475808740473</v>
       </c>
       <c r="J11">
-        <v>0.9814584814739011</v>
+        <v>1.042389743622121</v>
       </c>
       <c r="K11">
-        <v>0.9956785585168251</v>
+        <v>1.046238408518949</v>
       </c>
       <c r="L11">
-        <v>0.9765008883137543</v>
+        <v>1.047080052889317</v>
       </c>
       <c r="M11">
-        <v>0.9975363696404748</v>
+        <v>1.052438774021256</v>
       </c>
       <c r="N11">
-        <v>0.982852265092455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.016789861472417</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.050555033055582</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043833582322579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9456917131679351</v>
+        <v>1.013131259745762</v>
       </c>
       <c r="D12">
-        <v>0.9771092948558149</v>
+        <v>1.031681670619586</v>
       </c>
       <c r="E12">
-        <v>0.9568639436775679</v>
+        <v>1.032614638412366</v>
       </c>
       <c r="F12">
-        <v>0.9787949529432587</v>
+        <v>1.038331291447496</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026924605787485</v>
+        <v>1.056504648311444</v>
       </c>
       <c r="J12">
-        <v>0.9779866202479538</v>
+        <v>1.04239009377176</v>
       </c>
       <c r="K12">
-        <v>0.992688589253397</v>
+        <v>1.04622606986427</v>
       </c>
       <c r="L12">
-        <v>0.9728670055979973</v>
+        <v>1.047142577983925</v>
       </c>
       <c r="M12">
-        <v>0.9943400051263319</v>
+        <v>1.052759212259364</v>
       </c>
       <c r="N12">
-        <v>0.979375473425339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.016982922060585</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.051130755899373</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043824858686614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9465891777311706</v>
+        <v>1.013987766450377</v>
       </c>
       <c r="D13">
-        <v>0.9778162478565925</v>
+        <v>1.032333175729662</v>
       </c>
       <c r="E13">
-        <v>0.9577154979492797</v>
+        <v>1.033522677506536</v>
       </c>
       <c r="F13">
-        <v>0.979547202020859</v>
+        <v>1.039350490051785</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02727708012261</v>
+        <v>1.056948860981602</v>
       </c>
       <c r="J13">
-        <v>0.9787379240105049</v>
+        <v>1.043121212072046</v>
       </c>
       <c r="K13">
-        <v>0.9933356522326745</v>
+        <v>1.046824031164273</v>
       </c>
       <c r="L13">
-        <v>0.9736533215129236</v>
+        <v>1.047992658197066</v>
       </c>
       <c r="M13">
-        <v>0.9950316317940885</v>
+        <v>1.053719090746171</v>
       </c>
       <c r="N13">
-        <v>0.9801278441254085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.017419431772083</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.052163220643362</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.04424516497832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9494997514637562</v>
+        <v>1.015169980510435</v>
       </c>
       <c r="D14">
-        <v>0.980109435906205</v>
+        <v>1.033178253432232</v>
       </c>
       <c r="E14">
-        <v>0.9604777161908211</v>
+        <v>1.034625765533016</v>
       </c>
       <c r="F14">
-        <v>0.9819876057454867</v>
+        <v>1.040462607894827</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02841968965191</v>
+        <v>1.057445529354596</v>
       </c>
       <c r="J14">
-        <v>0.9811744204948001</v>
+        <v>1.043959782920898</v>
       </c>
       <c r="K14">
-        <v>0.9954339430310498</v>
+        <v>1.047516659910218</v>
       </c>
       <c r="L14">
-        <v>0.9762035491524808</v>
+        <v>1.048939108292096</v>
       </c>
       <c r="M14">
-        <v>0.9972748228330534</v>
+        <v>1.054675799316672</v>
       </c>
       <c r="N14">
-        <v>0.9825678007141817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.017832924396864</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.053091046298325</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04473627213497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9512706794559476</v>
+        <v>1.015751829279556</v>
       </c>
       <c r="D15">
-        <v>0.9815050551372062</v>
+        <v>1.033584003743379</v>
       </c>
       <c r="E15">
-        <v>0.9621587769537008</v>
+        <v>1.035137599183051</v>
       </c>
       <c r="F15">
-        <v>0.9834730363266385</v>
+        <v>1.040948046570751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029114516130682</v>
+        <v>1.057665581398595</v>
       </c>
       <c r="J15">
-        <v>0.9826568424840186</v>
+        <v>1.044336467190163</v>
       </c>
       <c r="K15">
-        <v>0.9967104747317661</v>
+        <v>1.047830629471756</v>
       </c>
       <c r="L15">
-        <v>0.9777553093853916</v>
+        <v>1.049357537839297</v>
       </c>
       <c r="M15">
-        <v>0.9986398017223448</v>
+        <v>1.05506908660734</v>
       </c>
       <c r="N15">
-        <v>0.9840523279126611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.017994398929011</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.053439088302095</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044964050144898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9612600495041574</v>
+        <v>1.018565040003099</v>
       </c>
       <c r="D16">
-        <v>0.9893818198493171</v>
+        <v>1.035484513110351</v>
       </c>
       <c r="E16">
-        <v>0.9716468053719191</v>
+        <v>1.037481631717442</v>
       </c>
       <c r="F16">
-        <v>0.9918598785145181</v>
+        <v>1.04303680415413</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033027785270955</v>
+        <v>1.058608623304182</v>
       </c>
       <c r="J16">
-        <v>0.9910176943378112</v>
+        <v>1.04598646801627</v>
       </c>
       <c r="K16">
-        <v>1.003908222067728</v>
+        <v>1.049206450299068</v>
       </c>
       <c r="L16">
-        <v>0.9865093296743181</v>
+        <v>1.051170797518332</v>
       </c>
       <c r="M16">
-        <v>1.006340562300774</v>
+        <v>1.056635660459244</v>
       </c>
       <c r="N16">
-        <v>0.9924250531350891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01856731592918</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.054638985861038</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.045939903142568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9672686509088201</v>
+        <v>1.020108064740663</v>
       </c>
       <c r="D17">
-        <v>0.9941229426401264</v>
+        <v>1.03650403459319</v>
       </c>
       <c r="E17">
-        <v>0.9773583398298171</v>
+        <v>1.038705287102963</v>
       </c>
       <c r="F17">
-        <v>0.9969107544058475</v>
+        <v>1.044054275240234</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035376075121779</v>
+        <v>1.059071130130346</v>
       </c>
       <c r="J17">
-        <v>0.996045472442575</v>
+        <v>1.04681486289803</v>
       </c>
       <c r="K17">
-        <v>1.008234808674088</v>
+        <v>1.049900920510089</v>
       </c>
       <c r="L17">
-        <v>0.9917753578584557</v>
+        <v>1.052067079774405</v>
       </c>
       <c r="M17">
-        <v>1.010973166970977</v>
+        <v>1.057331581171757</v>
       </c>
       <c r="N17">
-        <v>0.997459971261456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.018791739389431</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.055061413425826</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046433458862422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9706886556215334</v>
+        <v>1.020666535257392</v>
       </c>
       <c r="D18">
-        <v>0.9968224728688965</v>
+        <v>1.036823913105292</v>
       </c>
       <c r="E18">
-        <v>0.9806107390498772</v>
+        <v>1.039026919345654</v>
       </c>
       <c r="F18">
-        <v>0.9997876171689917</v>
+        <v>1.044177548830852</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036710609720951</v>
+        <v>1.059137604684592</v>
       </c>
       <c r="J18">
-        <v>0.9989066492409356</v>
+        <v>1.046970896396741</v>
       </c>
       <c r="K18">
-        <v>1.010696280913537</v>
+        <v>1.050035912752298</v>
       </c>
       <c r="L18">
-        <v>0.9947727655194427</v>
+        <v>1.0522043647231</v>
       </c>
       <c r="M18">
-        <v>1.013610017624491</v>
+        <v>1.057274932891806</v>
       </c>
       <c r="N18">
-        <v>1.000325211259052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.018710285793274</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.054781828235734</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046517420924463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9718411083330369</v>
+        <v>1.02035452648379</v>
       </c>
       <c r="D19">
-        <v>0.997732288111279</v>
+        <v>1.036535591724847</v>
       </c>
       <c r="E19">
-        <v>0.9817069528478476</v>
+        <v>1.038544757965586</v>
       </c>
       <c r="F19">
-        <v>1.000757360195114</v>
+        <v>1.043496789645479</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037159953554115</v>
+        <v>1.05886181889743</v>
       </c>
       <c r="J19">
-        <v>0.9998706880896275</v>
+        <v>1.046539753371421</v>
       </c>
       <c r="K19">
-        <v>1.01152552606648</v>
+        <v>1.049690800715082</v>
       </c>
       <c r="L19">
-        <v>0.9957828154024669</v>
+        <v>1.051668590680881</v>
       </c>
       <c r="M19">
-        <v>1.01449856009724</v>
+        <v>1.056543947186108</v>
       </c>
       <c r="N19">
-        <v>1.001290619153486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.018375015928177</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.053882757377629</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046279732394725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9666329148030708</v>
+        <v>1.017580832360201</v>
       </c>
       <c r="D20">
-        <v>0.9936212070449127</v>
+        <v>1.03451183845077</v>
       </c>
       <c r="E20">
-        <v>0.9767538773261302</v>
+        <v>1.035811408905842</v>
       </c>
       <c r="F20">
-        <v>0.9963761378347674</v>
+        <v>1.040605066851299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035127830813858</v>
+        <v>1.057617243673583</v>
       </c>
       <c r="J20">
-        <v>0.9955135678307665</v>
+        <v>1.044450469032385</v>
       </c>
       <c r="K20">
-        <v>1.007777154910021</v>
+        <v>1.047973820914396</v>
       </c>
       <c r="L20">
-        <v>0.9912181801555741</v>
+        <v>1.049252488479971</v>
       </c>
       <c r="M20">
-        <v>1.010483009201809</v>
+        <v>1.053969621368368</v>
       </c>
       <c r="N20">
-        <v>0.9969273112840884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.017314903172628</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.051325906214831</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045069671418069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9486473807066906</v>
+        <v>1.01209518039927</v>
       </c>
       <c r="D21">
-        <v>0.9794377961757653</v>
+        <v>1.030762830901205</v>
       </c>
       <c r="E21">
-        <v>0.9596687071362249</v>
+        <v>1.031133503406284</v>
       </c>
       <c r="F21">
-        <v>0.9812728032084853</v>
+        <v>1.036347489898548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028085153951859</v>
+        <v>1.055686361846833</v>
       </c>
       <c r="J21">
-        <v>0.9804608955979814</v>
+        <v>1.041095769006983</v>
       </c>
       <c r="K21">
-        <v>0.994819485645805</v>
+        <v>1.045183924908038</v>
       </c>
       <c r="L21">
-        <v>0.9754566885319051</v>
+        <v>1.045548110455456</v>
       </c>
       <c r="M21">
-        <v>0.9966178712681556</v>
+        <v>1.050671485525485</v>
       </c>
       <c r="N21">
-        <v>0.981853262530167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01603320669262</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04867542678336</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043100356423874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9363831750482208</v>
+        <v>1.008607940445741</v>
       </c>
       <c r="D22">
-        <v>0.9697809801408522</v>
+        <v>1.028384161581431</v>
       </c>
       <c r="E22">
-        <v>0.9480362482966082</v>
+        <v>1.028186072567094</v>
       </c>
       <c r="F22">
-        <v>0.9709994691981622</v>
+        <v>1.033691341913495</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02326479380707</v>
+        <v>1.054458418997836</v>
       </c>
       <c r="J22">
-        <v>0.9701937725114764</v>
+        <v>1.038974917182914</v>
       </c>
       <c r="K22">
-        <v>0.9859758298584501</v>
+        <v>1.043413541749563</v>
       </c>
       <c r="L22">
-        <v>0.9647125255828499</v>
+        <v>1.043219100683346</v>
       </c>
       <c r="M22">
-        <v>0.9871681871283662</v>
+        <v>1.048623663819101</v>
       </c>
       <c r="N22">
-        <v>0.9715715589512238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015228964906191</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.047054729544932</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041835290826205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9429864557628225</v>
+        <v>1.010445114028326</v>
       </c>
       <c r="D23">
-        <v>0.9749787236380991</v>
+        <v>1.029629479939144</v>
       </c>
       <c r="E23">
-        <v>0.9542975500171016</v>
+        <v>1.02973707824065</v>
       </c>
       <c r="F23">
-        <v>0.9765281185934284</v>
+        <v>1.035090940208741</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025861707998604</v>
+        <v>1.055100611228392</v>
       </c>
       <c r="J23">
-        <v>0.9757218977849501</v>
+        <v>1.040085775953191</v>
       </c>
       <c r="K23">
-        <v>0.9907379645238028</v>
+        <v>1.044336200611959</v>
       </c>
       <c r="L23">
-        <v>0.9704969029863972</v>
+        <v>1.044441869805145</v>
       </c>
       <c r="M23">
-        <v>0.9922553775774863</v>
+        <v>1.04970040034329</v>
       </c>
       <c r="N23">
-        <v>0.9771075347966708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015643473315574</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047906886161678</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042478102195923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9669204364455023</v>
+        <v>1.017547362517264</v>
       </c>
       <c r="D24">
-        <v>0.9938481219205063</v>
+        <v>1.034466584640911</v>
       </c>
       <c r="E24">
-        <v>0.9770272504004334</v>
+        <v>1.035750621075811</v>
       </c>
       <c r="F24">
-        <v>0.9966179204533944</v>
+        <v>1.040519892344565</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035240109705365</v>
+        <v>1.05757344563973</v>
       </c>
       <c r="J24">
-        <v>0.9957541318156948</v>
+        <v>1.044386280743603</v>
       </c>
       <c r="K24">
-        <v>1.007984139652881</v>
+        <v>1.047914306789744</v>
       </c>
       <c r="L24">
-        <v>0.991470172351819</v>
+        <v>1.04917771384146</v>
       </c>
       <c r="M24">
-        <v>1.010704690663482</v>
+        <v>1.053870932752646</v>
       </c>
       <c r="N24">
-        <v>0.9971682168974684</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.017258522194048</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.051207542144898</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045000521952766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.991410832912888</v>
+        <v>1.025475556083073</v>
       </c>
       <c r="D25">
-        <v>1.013190605106647</v>
+        <v>1.039885847111364</v>
       </c>
       <c r="E25">
-        <v>1.000339794297953</v>
+        <v>1.042493877843715</v>
       </c>
       <c r="F25">
-        <v>1.017247208555308</v>
+        <v>1.046619497428786</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04475871104564</v>
+        <v>1.060293306195716</v>
       </c>
       <c r="J25">
-        <v>1.016230755073885</v>
+        <v>1.049174964441059</v>
       </c>
       <c r="K25">
-        <v>1.025587547571788</v>
+        <v>1.051895004445883</v>
       </c>
       <c r="L25">
-        <v>1.012932837686719</v>
+        <v>1.054466494533393</v>
       </c>
       <c r="M25">
-        <v>1.029583556237698</v>
+        <v>1.058534779761083</v>
       </c>
       <c r="N25">
-        <v>1.017673919309386</v>
+        <v>1.019053942575038</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.054898601519397</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047812180855632</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031518083601794</v>
+        <v>1.029265813692993</v>
       </c>
       <c r="D2">
-        <v>1.044008795007886</v>
+        <v>1.040992187178803</v>
       </c>
       <c r="E2">
-        <v>1.047653148266842</v>
+        <v>1.045606952650783</v>
       </c>
       <c r="F2">
-        <v>1.051301182680853</v>
+        <v>1.049685278703344</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062316206711361</v>
+        <v>1.060607498099858</v>
       </c>
       <c r="J2">
-        <v>1.052795293228704</v>
+        <v>1.050605085174597</v>
       </c>
       <c r="K2">
-        <v>1.054887263317522</v>
+        <v>1.051908514540594</v>
       </c>
       <c r="L2">
-        <v>1.058486241355628</v>
+        <v>1.056465474054609</v>
       </c>
       <c r="M2">
-        <v>1.062089246723662</v>
+        <v>1.060493240391492</v>
       </c>
       <c r="N2">
-        <v>1.0203916803852</v>
+        <v>1.019965886127876</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.057711663853628</v>
+        <v>1.056448560050197</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049880229138331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047782703651114</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025515006392311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035811695643276</v>
+        <v>1.033285193120596</v>
       </c>
       <c r="D3">
-        <v>1.046957297668003</v>
+        <v>1.043633710466789</v>
       </c>
       <c r="E3">
-        <v>1.051332841639051</v>
+        <v>1.049036423602265</v>
       </c>
       <c r="F3">
-        <v>1.054641758829213</v>
+        <v>1.052832094421081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.06374266717552</v>
+        <v>1.061846207052664</v>
       </c>
       <c r="J3">
-        <v>1.05537152305944</v>
+        <v>1.052907839665178</v>
       </c>
       <c r="K3">
-        <v>1.057022638527223</v>
+        <v>1.0537371461805</v>
       </c>
       <c r="L3">
-        <v>1.061348482830064</v>
+        <v>1.059078084938958</v>
       </c>
       <c r="M3">
-        <v>1.064620152881088</v>
+        <v>1.062830823397878</v>
       </c>
       <c r="N3">
-        <v>1.021351950801324</v>
+        <v>1.020627558367146</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.059714657406002</v>
+        <v>1.05829855825891</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051387457253686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049072767592853</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025927669823232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038536636219048</v>
+        <v>1.035838512316806</v>
       </c>
       <c r="D4">
-        <v>1.048831898405002</v>
+        <v>1.04531514436276</v>
       </c>
       <c r="E4">
-        <v>1.053673634768469</v>
+        <v>1.05122042244944</v>
       </c>
       <c r="F4">
-        <v>1.05676895999173</v>
+        <v>1.054837948645568</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064638626636979</v>
+        <v>1.062623919283173</v>
       </c>
       <c r="J4">
-        <v>1.0570034253328</v>
+        <v>1.054367863698998</v>
       </c>
       <c r="K4">
-        <v>1.058374632082091</v>
+        <v>1.054895768691942</v>
       </c>
       <c r="L4">
-        <v>1.063164708493515</v>
+        <v>1.060737598429951</v>
       </c>
       <c r="M4">
-        <v>1.06622731082118</v>
+        <v>1.064316686011781</v>
       </c>
       <c r="N4">
-        <v>1.021959598661343</v>
+        <v>1.021047055042151</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.060986581358006</v>
+        <v>1.059474489873364</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052344285305992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049892954369182</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026186747989225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03967540955251</v>
+        <v>1.036905591676449</v>
       </c>
       <c r="D5">
-        <v>1.049618494449339</v>
+        <v>1.046021059199759</v>
       </c>
       <c r="E5">
-        <v>1.054653413521802</v>
+        <v>1.052134667291811</v>
       </c>
       <c r="F5">
-        <v>1.057659168274043</v>
+        <v>1.055677457763192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.065012703316074</v>
+        <v>1.062948528313557</v>
       </c>
       <c r="J5">
-        <v>1.057686739115869</v>
+        <v>1.054979233833213</v>
       </c>
       <c r="K5">
-        <v>1.058942265385207</v>
+        <v>1.055382563365738</v>
       </c>
       <c r="L5">
-        <v>1.063924901029973</v>
+        <v>1.061432233515821</v>
       </c>
       <c r="M5">
-        <v>1.066899732845174</v>
+        <v>1.064938385874716</v>
       </c>
       <c r="N5">
-        <v>1.022215637808417</v>
+        <v>1.021223815379316</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.061518743544276</v>
+        <v>1.059966510956662</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052752687037811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050244915897399</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026296056510778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039872668030553</v>
+        <v>1.037089823007473</v>
       </c>
       <c r="D6">
-        <v>1.049757731129091</v>
+        <v>1.046145929306396</v>
       </c>
       <c r="E6">
-        <v>1.054823517764806</v>
+        <v>1.052292872457958</v>
       </c>
       <c r="F6">
-        <v>1.057812934627394</v>
+        <v>1.05582202479762</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.065079713073034</v>
+        <v>1.063006663315307</v>
       </c>
       <c r="J6">
-        <v>1.057807613604452</v>
+        <v>1.055087053083033</v>
       </c>
       <c r="K6">
-        <v>1.059044704606564</v>
+        <v>1.055470613798368</v>
       </c>
       <c r="L6">
-        <v>1.064058129780636</v>
+        <v>1.061553565077446</v>
       </c>
       <c r="M6">
-        <v>1.067016933896392</v>
+        <v>1.065046388223884</v>
       </c>
       <c r="N6">
-        <v>1.022263063465828</v>
+        <v>1.021256335987587</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.061611497708097</v>
+        <v>1.060051985340926</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052833714333343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050316645808328</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026317051860015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038570211768076</v>
+        <v>1.035878545671319</v>
       </c>
       <c r="D7">
-        <v>1.048862971376131</v>
+        <v>1.045350714984024</v>
       </c>
       <c r="E7">
-        <v>1.053703357257085</v>
+        <v>1.051255964280288</v>
       </c>
       <c r="F7">
-        <v>1.056793754833109</v>
+        <v>1.054867251177805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.06465598070287</v>
+        <v>1.062644680748976</v>
       </c>
       <c r="J7">
-        <v>1.057030475844792</v>
+        <v>1.054401193749169</v>
       </c>
       <c r="K7">
-        <v>1.058402555893467</v>
+        <v>1.054928126181695</v>
       </c>
       <c r="L7">
-        <v>1.063191317011749</v>
+        <v>1.060769953764769</v>
       </c>
       <c r="M7">
-        <v>1.066249056671657</v>
+        <v>1.064342883953383</v>
       </c>
       <c r="N7">
-        <v>1.021975595033217</v>
+        <v>1.021087797145786</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.061003791268979</v>
+        <v>1.059495223259857</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052383805600932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049937624907201</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026199075103192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033003808199863</v>
+        <v>1.030685704802034</v>
       </c>
       <c r="D8">
-        <v>1.045038216353132</v>
+        <v>1.041938405888816</v>
       </c>
       <c r="E8">
-        <v>1.048926392091295</v>
+        <v>1.046819879162731</v>
       </c>
       <c r="F8">
-        <v>1.052453830602337</v>
+        <v>1.050791206362328</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062819575424341</v>
+        <v>1.061062292520638</v>
       </c>
       <c r="J8">
-        <v>1.053696112804017</v>
+        <v>1.051439739051544</v>
       </c>
       <c r="K8">
-        <v>1.055640811518047</v>
+        <v>1.052578750134016</v>
       </c>
       <c r="L8">
-        <v>1.059482029072796</v>
+        <v>1.057400903109416</v>
       </c>
       <c r="M8">
-        <v>1.062967238285562</v>
+        <v>1.061324474606092</v>
       </c>
       <c r="N8">
-        <v>1.020735362250953</v>
+        <v>1.020294468541926</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.058406518906745</v>
+        <v>1.057106411771734</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050435588398222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048281439202585</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02567643221265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022736836513918</v>
+        <v>1.021096890151172</v>
       </c>
       <c r="D9">
-        <v>1.037999360964479</v>
+        <v>1.035649395438813</v>
       </c>
       <c r="E9">
-        <v>1.040159241901667</v>
+        <v>1.03866993335602</v>
       </c>
       <c r="F9">
-        <v>1.044509762555518</v>
+        <v>1.043325577408198</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059349585603201</v>
+        <v>1.058050780646684</v>
       </c>
       <c r="J9">
-        <v>1.047511478648717</v>
+        <v>1.04592604368308</v>
       </c>
       <c r="K9">
-        <v>1.050504605851328</v>
+        <v>1.048189402321232</v>
       </c>
       <c r="L9">
-        <v>1.052632712492685</v>
+        <v>1.051165295399446</v>
       </c>
       <c r="M9">
-        <v>1.056919737892542</v>
+        <v>1.055752769238503</v>
       </c>
       <c r="N9">
-        <v>1.018420222319763</v>
+        <v>1.018717054656843</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053620427966517</v>
+        <v>1.052696866372672</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046800914511728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045174549372665</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024669879536343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015701125455375</v>
+        <v>1.014575299616933</v>
       </c>
       <c r="D10">
-        <v>1.033214240672188</v>
+        <v>1.031414898344527</v>
       </c>
       <c r="E10">
-        <v>1.034223242419465</v>
+        <v>1.033199880462624</v>
       </c>
       <c r="F10">
-        <v>1.039184578711382</v>
+        <v>1.038362382155562</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056957727056828</v>
+        <v>1.055997726732615</v>
       </c>
       <c r="J10">
-        <v>1.043305349831231</v>
+        <v>1.042222334966411</v>
       </c>
       <c r="K10">
-        <v>1.047008625019385</v>
+        <v>1.045239203629913</v>
       </c>
       <c r="L10">
-        <v>1.048000906902683</v>
+        <v>1.046994503071986</v>
       </c>
       <c r="M10">
-        <v>1.052880637502929</v>
+        <v>1.052071895399592</v>
       </c>
       <c r="N10">
-        <v>1.016874484090363</v>
+        <v>1.017795700773937</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050474501245859</v>
+        <v>1.049834483314472</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044345691098597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043106908354937</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02400383189071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013570828662586</v>
+        <v>1.012569475085301</v>
       </c>
       <c r="D11">
-        <v>1.031893901576019</v>
+        <v>1.030234102690142</v>
       </c>
       <c r="E11">
-        <v>1.032750415992461</v>
+        <v>1.0318404340881</v>
       </c>
       <c r="F11">
-        <v>1.038203057774103</v>
+        <v>1.037470777673378</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056475808740473</v>
+        <v>1.055601776000526</v>
       </c>
       <c r="J11">
-        <v>1.042389743622121</v>
+        <v>1.041428539392781</v>
       </c>
       <c r="K11">
-        <v>1.046238408518949</v>
+        <v>1.044607516739661</v>
       </c>
       <c r="L11">
-        <v>1.047080052889317</v>
+        <v>1.046185870345935</v>
       </c>
       <c r="M11">
-        <v>1.052438774021256</v>
+        <v>1.051719033130717</v>
       </c>
       <c r="N11">
-        <v>1.016789861472417</v>
+        <v>1.017960468825832</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.050555033055582</v>
+        <v>1.049985727141933</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043833582322579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042695969001159</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023981426160191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013131259745762</v>
+        <v>1.012114232317734</v>
       </c>
       <c r="D12">
-        <v>1.031681670619586</v>
+        <v>1.030015911261183</v>
       </c>
       <c r="E12">
-        <v>1.032614638412366</v>
+        <v>1.031691276112394</v>
       </c>
       <c r="F12">
-        <v>1.038331291447496</v>
+        <v>1.037589965351009</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056504648311444</v>
+        <v>1.055625754531335</v>
       </c>
       <c r="J12">
-        <v>1.04239009377176</v>
+        <v>1.0414146000326</v>
       </c>
       <c r="K12">
-        <v>1.04622606986427</v>
+        <v>1.044589794486332</v>
       </c>
       <c r="L12">
-        <v>1.047142577983925</v>
+        <v>1.04623550569766</v>
       </c>
       <c r="M12">
-        <v>1.052759212259364</v>
+        <v>1.05203077591395</v>
       </c>
       <c r="N12">
-        <v>1.016982922060585</v>
+        <v>1.018172536410466</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.051130755899373</v>
+        <v>1.050554762190391</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043824858686614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042683439292375</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024061040342822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013987766450377</v>
+        <v>1.01282867831739</v>
       </c>
       <c r="D13">
-        <v>1.032333175729662</v>
+        <v>1.030535795052534</v>
       </c>
       <c r="E13">
-        <v>1.033522677506536</v>
+        <v>1.032471981957409</v>
       </c>
       <c r="F13">
-        <v>1.039350490051785</v>
+        <v>1.038511457752161</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056948860981602</v>
+        <v>1.055985482000465</v>
       </c>
       <c r="J13">
-        <v>1.043121212072046</v>
+        <v>1.042009182905834</v>
       </c>
       <c r="K13">
-        <v>1.046824031164273</v>
+        <v>1.045058311538724</v>
       </c>
       <c r="L13">
-        <v>1.047992658197066</v>
+        <v>1.046960398248114</v>
       </c>
       <c r="M13">
-        <v>1.053719090746171</v>
+        <v>1.052894563449408</v>
       </c>
       <c r="N13">
-        <v>1.017419431772083</v>
+        <v>1.018408086199726</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.052163220643362</v>
+        <v>1.051511405487447</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04424516497832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043011977110211</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024232290015775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015169980510435</v>
+        <v>1.01385725289598</v>
       </c>
       <c r="D14">
-        <v>1.033178253432232</v>
+        <v>1.031234757889851</v>
       </c>
       <c r="E14">
-        <v>1.034625765533016</v>
+        <v>1.033437034090858</v>
       </c>
       <c r="F14">
-        <v>1.040462607894827</v>
+        <v>1.039517199067197</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.057445529354596</v>
+        <v>1.056388766359886</v>
       </c>
       <c r="J14">
-        <v>1.043959782920898</v>
+        <v>1.042699551901755</v>
       </c>
       <c r="K14">
-        <v>1.047516659910218</v>
+        <v>1.045606959338003</v>
       </c>
       <c r="L14">
-        <v>1.048939108292096</v>
+        <v>1.047770953103842</v>
       </c>
       <c r="M14">
-        <v>1.054675799316672</v>
+        <v>1.053746513663882</v>
       </c>
       <c r="N14">
-        <v>1.017832924396864</v>
+        <v>1.018585569982827</v>
       </c>
       <c r="O14">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P14">
-        <v>1.053091046298325</v>
+        <v>1.052356513604918</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04473627213497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043401419814056</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024394572678356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015751829279556</v>
+        <v>1.014373834899726</v>
       </c>
       <c r="D15">
-        <v>1.033584003743379</v>
+        <v>1.031577266098356</v>
       </c>
       <c r="E15">
-        <v>1.035137599183051</v>
+        <v>1.033890110409254</v>
       </c>
       <c r="F15">
-        <v>1.040948046570751</v>
+        <v>1.03995722400753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057665581398595</v>
+        <v>1.056568523667282</v>
       </c>
       <c r="J15">
-        <v>1.044336467190163</v>
+        <v>1.043013085585696</v>
       </c>
       <c r="K15">
-        <v>1.047830629471756</v>
+        <v>1.045858516715179</v>
       </c>
       <c r="L15">
-        <v>1.049357537839297</v>
+        <v>1.048131469751244</v>
       </c>
       <c r="M15">
-        <v>1.05506908660734</v>
+        <v>1.054095027792529</v>
       </c>
       <c r="N15">
-        <v>1.017994398929011</v>
+        <v>1.018643004581989</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.053439088302095</v>
+        <v>1.052669185588543</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044964050144898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043585642339585</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024459253756677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018565040003099</v>
+        <v>1.016931514375386</v>
       </c>
       <c r="D16">
-        <v>1.035484513110351</v>
+        <v>1.033220468756781</v>
       </c>
       <c r="E16">
-        <v>1.037481631717442</v>
+        <v>1.036003243609633</v>
       </c>
       <c r="F16">
-        <v>1.04303680415413</v>
+        <v>1.041866768131195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058608623304182</v>
+        <v>1.057349102634578</v>
       </c>
       <c r="J16">
-        <v>1.04598646801627</v>
+        <v>1.044414414831947</v>
       </c>
       <c r="K16">
-        <v>1.049206450299068</v>
+        <v>1.046979754608064</v>
       </c>
       <c r="L16">
-        <v>1.051170797518332</v>
+        <v>1.049716653154547</v>
       </c>
       <c r="M16">
-        <v>1.056635660459244</v>
+        <v>1.05548454272423</v>
       </c>
       <c r="N16">
-        <v>1.01856731592918</v>
+        <v>1.018803688548597</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.054638985861038</v>
+        <v>1.053729108640073</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045939903142568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044381799790552</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024695382450932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020108064740663</v>
+        <v>1.018368751202843</v>
       </c>
       <c r="D17">
-        <v>1.03650403459319</v>
+        <v>1.034126001968484</v>
       </c>
       <c r="E17">
-        <v>1.038705287102963</v>
+        <v>1.037130727603132</v>
       </c>
       <c r="F17">
-        <v>1.044054275240234</v>
+        <v>1.042809123179525</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.059071130130346</v>
+        <v>1.057740924566709</v>
       </c>
       <c r="J17">
-        <v>1.04681486289803</v>
+        <v>1.045138897407285</v>
       </c>
       <c r="K17">
-        <v>1.049900920510089</v>
+        <v>1.047561014794194</v>
       </c>
       <c r="L17">
-        <v>1.052067079774405</v>
+        <v>1.050517603087669</v>
       </c>
       <c r="M17">
-        <v>1.057331581171757</v>
+        <v>1.056105997115897</v>
       </c>
       <c r="N17">
-        <v>1.018791739389431</v>
+        <v>1.018864617729967</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.055061413425826</v>
+        <v>1.054092580895842</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046433458862422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044795562385594</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024793678687348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020666535257392</v>
+        <v>1.018932074197336</v>
       </c>
       <c r="D18">
-        <v>1.036823913105292</v>
+        <v>1.0344391310471</v>
       </c>
       <c r="E18">
-        <v>1.039026919345654</v>
+        <v>1.037455829423173</v>
       </c>
       <c r="F18">
-        <v>1.044177548830852</v>
+        <v>1.04293401190041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059137604684592</v>
+        <v>1.057805019256858</v>
       </c>
       <c r="J18">
-        <v>1.046970896396741</v>
+        <v>1.045298448562255</v>
       </c>
       <c r="K18">
-        <v>1.050035912752298</v>
+        <v>1.047688748547756</v>
       </c>
       <c r="L18">
-        <v>1.0522043647231</v>
+        <v>1.050657898225751</v>
       </c>
       <c r="M18">
-        <v>1.057274932891806</v>
+        <v>1.056050632979576</v>
       </c>
       <c r="N18">
-        <v>1.018710285793274</v>
+        <v>1.018786803117866</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.054781828235734</v>
+        <v>1.053813813643633</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046517420924463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044873250867286</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024764657485407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02035452648379</v>
+        <v>1.018712555665276</v>
       </c>
       <c r="D19">
-        <v>1.036535591724847</v>
+        <v>1.034231595982342</v>
       </c>
       <c r="E19">
-        <v>1.038544757965586</v>
+        <v>1.037056221350237</v>
       </c>
       <c r="F19">
-        <v>1.043496789645479</v>
+        <v>1.042315809258308</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05886181889743</v>
+        <v>1.057581994849302</v>
       </c>
       <c r="J19">
-        <v>1.046539753371421</v>
+        <v>1.044956190099147</v>
       </c>
       <c r="K19">
-        <v>1.049690800715082</v>
+        <v>1.047422977501445</v>
       </c>
       <c r="L19">
-        <v>1.051668590680881</v>
+        <v>1.050203284971069</v>
       </c>
       <c r="M19">
-        <v>1.056543947186108</v>
+        <v>1.055381168127531</v>
       </c>
       <c r="N19">
-        <v>1.018375015928177</v>
+        <v>1.018575860956321</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053882757377629</v>
+        <v>1.052963092899076</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046279732394725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044692287262692</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024629357967973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017580832360201</v>
+        <v>1.01628041116444</v>
       </c>
       <c r="D20">
-        <v>1.03451183845077</v>
+        <v>1.032536779463116</v>
       </c>
       <c r="E20">
-        <v>1.035811408905842</v>
+        <v>1.034630260479414</v>
       </c>
       <c r="F20">
-        <v>1.040605066851299</v>
+        <v>1.039660326448447</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057617243673583</v>
+        <v>1.056546539515496</v>
       </c>
       <c r="J20">
-        <v>1.044450469032385</v>
+        <v>1.043197861226754</v>
       </c>
       <c r="K20">
-        <v>1.047973820914396</v>
+        <v>1.046030659033753</v>
       </c>
       <c r="L20">
-        <v>1.049252488479971</v>
+        <v>1.048090335398477</v>
       </c>
       <c r="M20">
-        <v>1.053969621368368</v>
+        <v>1.053039891084171</v>
       </c>
       <c r="N20">
-        <v>1.017314903172628</v>
+        <v>1.017976613212983</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051325906214831</v>
+        <v>1.050590132922668</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045069671418069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043712163437524</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02418821184177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01209518039927</v>
+        <v>1.011367375998454</v>
       </c>
       <c r="D21">
-        <v>1.030762830901205</v>
+        <v>1.029352901763542</v>
       </c>
       <c r="E21">
-        <v>1.031133503406284</v>
+        <v>1.030469066534995</v>
       </c>
       <c r="F21">
-        <v>1.036347489898548</v>
+        <v>1.035804175546448</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.055686361846833</v>
+        <v>1.054974056163458</v>
       </c>
       <c r="J21">
-        <v>1.041095769006983</v>
+        <v>1.040397401867664</v>
       </c>
       <c r="K21">
-        <v>1.045183924908038</v>
+        <v>1.043798725566071</v>
       </c>
       <c r="L21">
-        <v>1.045548110455456</v>
+        <v>1.044895305862668</v>
       </c>
       <c r="M21">
-        <v>1.050671485525485</v>
+        <v>1.050137558100802</v>
       </c>
       <c r="N21">
-        <v>1.01603320669262</v>
+        <v>1.017613092345412</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04867542678336</v>
+        <v>1.04825286362754</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043100356423874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042137672701653</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023686111665143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008607940445741</v>
+        <v>1.008245194647218</v>
       </c>
       <c r="D22">
-        <v>1.028384161581431</v>
+        <v>1.027334478738102</v>
       </c>
       <c r="E22">
-        <v>1.028186072567094</v>
+        <v>1.027850380932418</v>
       </c>
       <c r="F22">
-        <v>1.033691341913495</v>
+        <v>1.0334038901477</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054458418997836</v>
+        <v>1.053973911679619</v>
       </c>
       <c r="J22">
-        <v>1.038974917182914</v>
+        <v>1.038627715630787</v>
       </c>
       <c r="K22">
-        <v>1.043413541749563</v>
+        <v>1.042383210437234</v>
       </c>
       <c r="L22">
-        <v>1.043219100683346</v>
+        <v>1.042889595229331</v>
       </c>
       <c r="M22">
-        <v>1.048623663819101</v>
+        <v>1.048341435777026</v>
       </c>
       <c r="N22">
-        <v>1.015228964906191</v>
+        <v>1.017385057856112</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047054729544932</v>
+        <v>1.046831366945856</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041835290826205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041122209743278</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023369880988482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010445114028326</v>
+        <v>1.009873983082446</v>
       </c>
       <c r="D23">
-        <v>1.029629479939144</v>
+        <v>1.02837686544091</v>
       </c>
       <c r="E23">
-        <v>1.02973707824065</v>
+        <v>1.029213837158842</v>
       </c>
       <c r="F23">
-        <v>1.035090940208741</v>
+        <v>1.034657452157742</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055100611228392</v>
+        <v>1.054487048850719</v>
       </c>
       <c r="J23">
-        <v>1.040085775953191</v>
+        <v>1.039538387130687</v>
       </c>
       <c r="K23">
-        <v>1.044336200611959</v>
+        <v>1.043106082588968</v>
       </c>
       <c r="L23">
-        <v>1.044441869805145</v>
+        <v>1.043928014729559</v>
       </c>
       <c r="M23">
-        <v>1.04970040034329</v>
+        <v>1.049274583411308</v>
       </c>
       <c r="N23">
-        <v>1.015643473315574</v>
+        <v>1.017450061747844</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047906886161678</v>
+        <v>1.047569883950321</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042478102195923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041622820646667</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02352424566808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017547362517264</v>
+        <v>1.016261616021871</v>
       </c>
       <c r="D24">
-        <v>1.034466584640911</v>
+        <v>1.032503616167155</v>
       </c>
       <c r="E24">
-        <v>1.035750621075811</v>
+        <v>1.034582594565011</v>
       </c>
       <c r="F24">
-        <v>1.040519892344565</v>
+        <v>1.039585135358974</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05757344563973</v>
+        <v>1.056510870979266</v>
       </c>
       <c r="J24">
-        <v>1.044386280743603</v>
+        <v>1.043147745407604</v>
       </c>
       <c r="K24">
-        <v>1.047914306789744</v>
+        <v>1.045983002763034</v>
       </c>
       <c r="L24">
-        <v>1.04917771384146</v>
+        <v>1.048028450193933</v>
       </c>
       <c r="M24">
-        <v>1.053870932752646</v>
+        <v>1.052951011269054</v>
       </c>
       <c r="N24">
-        <v>1.017258522194048</v>
+        <v>1.01793911278894</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051207542144898</v>
+        <v>1.050479496223376</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045000521952766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043648714914716</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024161793789936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025475556083073</v>
+        <v>1.023635728646341</v>
       </c>
       <c r="D25">
-        <v>1.039885847111364</v>
+        <v>1.037321669676849</v>
       </c>
       <c r="E25">
-        <v>1.042493877843715</v>
+        <v>1.040823086263467</v>
       </c>
       <c r="F25">
-        <v>1.046619497428786</v>
+        <v>1.045294578211087</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060293306195716</v>
+        <v>1.058862315114142</v>
       </c>
       <c r="J25">
-        <v>1.049174964441059</v>
+        <v>1.047393023005792</v>
       </c>
       <c r="K25">
-        <v>1.051895004445883</v>
+        <v>1.049366979667175</v>
       </c>
       <c r="L25">
-        <v>1.054466494533393</v>
+        <v>1.052819085489512</v>
       </c>
       <c r="M25">
-        <v>1.058534779761083</v>
+        <v>1.057228210918629</v>
       </c>
       <c r="N25">
-        <v>1.019053942575038</v>
+        <v>1.019110466497282</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054898601519397</v>
+        <v>1.053864559304917</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047812180855632</v>
+        <v>1.046038159628219</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024945590149555</v>
       </c>
     </row>
   </sheetData>
